--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -361,7 +361,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -372,10 +372,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0637322329206786"/>
-          <c:y val="0.0511649874055416"/>
-          <c:w val="0.902453003209537"/>
-          <c:h val="0.825724181360202"/>
+          <c:x val="0.0636459184865117"/>
+          <c:y val="0.0511891636478186"/>
+          <c:w val="0.902020319981315"/>
+          <c:h val="0.825169318002835"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -477,11 +477,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97249619"/>
-        <c:axId val="89629764"/>
+        <c:axId val="39397906"/>
+        <c:axId val="86807982"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97249619"/>
+        <c:axId val="39397906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,12 +516,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89629764"/>
+        <c:crossAx val="86807982"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89629764"/>
+        <c:axId val="86807982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97249619"/>
+        <c:crossAx val="39397906"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -621,9 +621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>145080</xdr:colOff>
+      <xdr:colOff>144000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -632,7 +632,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="3161880"/>
-        <a:ext cx="3140280" cy="2286360"/>
+        <a:ext cx="3082320" cy="2285280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -652,15 +652,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -778,8 +778,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,8 +990,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,8 +1056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1151,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -146,7 +146,19 @@
     <t xml:space="preserve">Length of single attrition period</t>
   </si>
   <si>
+    <t xml:space="preserve">Fixed attrition rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probability of attrition/period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attrition rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Retirement parameters</t>
@@ -361,7 +373,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -372,10 +384,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636459184865117"/>
-          <c:y val="0.0511891636478186"/>
-          <c:w val="0.902020319981315"/>
-          <c:h val="0.825169318002835"/>
+          <c:x val="0.0636385143127514"/>
+          <c:y val="0.0512133627481878"/>
+          <c:w val="0.901821622900402"/>
+          <c:h val="0.824613930034668"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -477,11 +489,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39397906"/>
-        <c:axId val="86807982"/>
+        <c:axId val="66637479"/>
+        <c:axId val="91457073"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39397906"/>
+        <c:axId val="66637479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,12 +528,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86807982"/>
+        <c:crossAx val="91457073"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86807982"/>
+        <c:axId val="91457073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39397906"/>
+        <c:crossAx val="66637479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -621,9 +633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -632,7 +644,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="3161880"/>
-        <a:ext cx="3082320" cy="2285280"/>
+        <a:ext cx="3043080" cy="2284200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -652,15 +664,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +790,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +858,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -931,7 +943,7 @@
       <formula>Recruitment!$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10">
+  <conditionalFormatting sqref="A10:C10">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(Recruitment!$B$9)</formula>
     </cfRule>
@@ -982,16 +994,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,20 +1027,85 @@
       <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="A7:C7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Attrition!$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(Attrition!$B$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
     <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4" type="decimal">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5" type="decimal">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1056,19 +1133,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1090,7 +1167,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1101,7 +1178,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>56</v>
@@ -1151,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -373,7 +373,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -384,10 +384,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636385143127514"/>
-          <c:y val="0.0512133627481878"/>
-          <c:w val="0.901821622900402"/>
-          <c:h val="0.824613930034668"/>
+          <c:x val="0.0636156703007068"/>
+          <c:y val="0.0512214342001576"/>
+          <c:w val="0.901761111776686"/>
+          <c:h val="0.824428684003152"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -489,11 +489,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66637479"/>
-        <c:axId val="91457073"/>
+        <c:axId val="30843945"/>
+        <c:axId val="68834275"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66637479"/>
+        <c:axId val="30843945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,12 +528,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91457073"/>
+        <c:crossAx val="68834275"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91457073"/>
+        <c:axId val="68834275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66637479"/>
+        <c:crossAx val="30843945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -633,9 +633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -644,7 +644,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="3161880"/>
-        <a:ext cx="3043080" cy="2284200"/>
+        <a:ext cx="3004560" cy="2283840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -670,9 +670,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,18 +780,18 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,14 +996,14 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,8 +1133,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -384,10 +384,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636156703007068"/>
-          <c:y val="0.0512214342001576"/>
-          <c:w val="0.901761111776686"/>
-          <c:h val="0.824428684003152"/>
+          <c:x val="0.0635500365230095"/>
+          <c:y val="0.0512295081967213"/>
+          <c:w val="0.90163136109082"/>
+          <c:h val="0.824243379571248"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -489,11 +489,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30843945"/>
-        <c:axId val="68834275"/>
+        <c:axId val="60881024"/>
+        <c:axId val="20717516"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30843945"/>
+        <c:axId val="60881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,12 +528,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68834275"/>
+        <c:crossAx val="20717516"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68834275"/>
+        <c:axId val="20717516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30843945"/>
+        <c:crossAx val="60881024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -633,9 +633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -644,7 +644,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="3161880"/>
-        <a:ext cx="3004560" cy="2283840"/>
+        <a:ext cx="2956680" cy="2283480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -664,15 +664,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -780,18 +780,18 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
@@ -1002,8 +1002,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,8 +1133,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Recruitment" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Attrition" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Retirement" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Misc" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Attributes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Recruitment" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Attrition" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Retirement" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Misc" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -77,7 +78,7 @@
     <t xml:space="preserve">testSim</t>
   </si>
   <si>
-    <t xml:space="preserve">Personnel cap</t>
+    <t xml:space="preserve">Target personnel</t>
   </si>
   <si>
     <t xml:space="preserve">persons</t>
@@ -86,9 +87,6 @@
     <t xml:space="preserve">Sim start date</t>
   </si>
   <si>
-    <t xml:space="preserve">Sim end date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sim length</t>
   </si>
   <si>
@@ -98,6 +96,60 @@
     <t xml:space="preserve">Number of DB commits</t>
   </si>
   <si>
+    <t xml:space="preserve">Personnel attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed attribute?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed probabilities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recruitment parameters</t>
   </si>
   <si>
@@ -110,6 +162,9 @@
     <t xml:space="preserve">Test</t>
   </si>
   <si>
+    <t xml:space="preserve">Test 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time between recruitment cycles</t>
   </si>
   <si>
@@ -119,15 +174,36 @@
     <t xml:space="preserve">Offset of cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">Min recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max recruitment</t>
   </si>
   <si>
+    <t xml:space="preserve">Adaptive recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fixed recruitment age?</t>
   </si>
   <si>
     <t xml:space="preserve">Recruitment age</t>
   </si>
   <si>
+    <t xml:space="preserve"># of recruits distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piecewise Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recruitment age distribution</t>
   </si>
   <si>
@@ -137,9 +213,6 @@
     <t xml:space="preserve">Age in years</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attrition parameters</t>
   </si>
   <si>
@@ -153,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attrition rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
   </si>
   <si>
     <t xml:space="preserve">Rate</t>
@@ -224,15 +294,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -240,8 +316,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF006600"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF006600"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF006600"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF006600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,8 +356,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +369,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,31 +389,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <name val="FreeSans"/>
+        <name val="Arial"/>
         <charset val="1"/>
         <family val="2"/>
-        <color rgb="FFB2B2B2"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -321,7 +428,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -353,7 +460,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -384,10 +491,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0635500365230095"/>
-          <c:y val="0.0512295081967213"/>
-          <c:w val="0.90163136109082"/>
-          <c:h val="0.824243379571248"/>
+          <c:x val="0.0634586466165414"/>
+          <c:y val="0.0513103883801705"/>
+          <c:w val="0.900350877192982"/>
+          <c:h val="0.822071360909378"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -398,7 +505,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Recruitment!$C$13:$C$13</c:f>
+              <c:f>Recruitment!$C$24:$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,7 +542,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Recruitment!$B$14:$B$19</c:f>
+              <c:f>Recruitment!$B$25:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -462,7 +569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Recruitment!$C$14:$C$19</c:f>
+              <c:f>Recruitment!$C$25:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -489,11 +596,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60881024"/>
-        <c:axId val="20717516"/>
+        <c:axId val="38723251"/>
+        <c:axId val="35462587"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60881024"/>
+        <c:axId val="38723251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,12 +635,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20717516"/>
+        <c:crossAx val="35462587"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20717516"/>
+        <c:axId val="35462587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60881024"/>
+        <c:crossAx val="38723251"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -628,14 +735,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33480</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -643,8 +750,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33480" y="3161880"/>
-        <a:ext cx="2956680" cy="2283480"/>
+        <a:off x="33480" y="4950000"/>
+        <a:ext cx="3590640" cy="2279880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -662,16 +769,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -685,7 +792,7 @@
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -693,7 +800,7 @@
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -701,8 +808,8 @@
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>5000</v>
+      <c r="B5" s="3" t="n">
+        <v>25000</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -712,7 +819,7 @@
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -721,27 +828,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>79625</v>
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="n">
-        <f aca="false">YEARFRAC(B6,B7)</f>
-        <v>100</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -753,11 +851,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B7" type="date">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="date">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -778,159 +876,700 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E29" activeCellId="0" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B8 B14 B16 B22 B24 B31 B33" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B15 B23 B32" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>920</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="C26" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="F28" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="G28" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="G30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,34 +1577,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12:C13">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>Recruitment!$B$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:C10">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>NOT(Recruitment!$B$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="decimal">
+  <dataValidations count="8">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 F6" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="whole">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B12 F10:F12" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 F13" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="list">
-      <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10" type="decimal">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B12" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B23 F23" type="list">
       <formula1>"Pointwise,Uniform"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -973,8 +1598,16 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 F7" type="decimal">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 F8:F9" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15 F15" type="list">
+      <formula1>"Pointwise,Uniform,Piecewise Linear"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -989,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -997,88 +1630,88 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="7" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="7" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="7" t="n">
         <v>-0.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1120,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1128,63 +1761,63 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1232,13 +1865,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="n">
+      <c r="A1" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Attributes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Recruitment" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Attrition" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Retirement" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Misc" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="States" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Transitions" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Attrition" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Retirement" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Misc" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -147,7 +149,79 @@
     <t xml:space="preserve">Vol</t>
   </si>
   <si>
-    <t xml:space="preserve">Function</t>
+    <t xml:space="preserve">Seniority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonCom , Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time between transition tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset of cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min time required in start state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Promotion</t>
   </si>
   <si>
     <t xml:space="preserve">Recruitment parameters</t>
@@ -168,31 +242,13 @@
     <t xml:space="preserve">Time between recruitment cycles</t>
   </si>
   <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offset of cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max recruitment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaptive recruitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Random recruitment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed recruitment age?</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment age</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># of recruits distribution</t>
+    <t xml:space="preserve">Pointwise</t>
   </si>
   <si>
     <t xml:space="preserve">Piecewise Linear</t>
@@ -204,9 +260,6 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment age distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uniform</t>
   </si>
   <si>
@@ -220,12 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed attrition rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of attrition/period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attrition rate</t>
   </si>
   <si>
     <t xml:space="preserve">Rate</t>
@@ -408,14 +455,7 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -466,7 +506,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -480,7 +520,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -491,10 +531,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0634586466165414"/>
-          <c:y val="0.0513103883801705"/>
-          <c:w val="0.900350877192982"/>
-          <c:h val="0.822071360909378"/>
+          <c:x val="0.0634593592253013"/>
+          <c:y val="0.0513428120063191"/>
+          <c:w val="0.89996909446791"/>
+          <c:h val="0.82132701421801"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -596,11 +636,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38723251"/>
-        <c:axId val="35462587"/>
+        <c:axId val="19037526"/>
+        <c:axId val="39433099"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38723251"/>
+        <c:axId val="19037526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,12 +675,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35462587"/>
+        <c:crossAx val="39433099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35462587"/>
+        <c:axId val="39433099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +724,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38723251"/>
+        <c:crossAx val="19037526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -740,9 +780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -751,7 +791,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="4950000"/>
-        <a:ext cx="3590640" cy="2279880"/>
+        <a:ext cx="3494160" cy="2278440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -777,8 +817,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -839,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -876,19 +916,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -1104,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,6 +1172,22 @@
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1139,12 +1195,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B15 B23 B32" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B8 B14 B16 B22 B24 B31 B33" type="list">
       <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B15 B23 B32" type="whole">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1163,6 +1219,435 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B12 B17 B22 B27" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B13:C13 B18:C18 B23:C23 B28:C29" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B7 B12:B14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10 C17" type="list">
+      <formula1>"years,months"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8 B10 B15 B17" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B16" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1170,86 +1655,87 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
+      <c r="A8" s="6" t="str">
+        <f aca="false">IF(B10,"Min recruitment","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>92</v>
@@ -1258,8 +1744,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
+      <c r="E8" s="6" t="str">
+        <f aca="false">IF(F10,"Min recruitment","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>920</v>
@@ -1269,18 +1756,20 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
+      <c r="A9" s="6" t="str">
+        <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
+        <v>Recruitment</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
+      <c r="E9" s="6" t="str">
+        <f aca="false">IF(F10,"Max recruitment",IF(F11,"ignored","Recruitment"))</f>
+        <v>ignored</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1100</v>
@@ -1291,27 +1780,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
+      <c r="A11" s="6" t="str">
+        <f aca="false">IF(B10,"ignored","Random recruitment")</f>
+        <v>Random recruitment</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f aca="false">IF(F10,"ignored","Random recruitment")</f>
+        <v>Random recruitment</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1</v>
@@ -1319,21 +1810,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
+      <c r="A13" s="6" t="str">
+        <f aca="false">IF(B12,"Recruitment age","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>18</v>
@@ -1342,8 +1834,9 @@
         <v>9</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>42</v>
+      <c r="E13" s="6" t="str">
+        <f aca="false">IF(F12,"Recruitment age","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>18</v>
@@ -1353,45 +1846,47 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
+      <c r="A15" s="6" t="str">
+        <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
+      <c r="E15" s="6" t="str">
+        <f aca="false">IF(AND(NOT(F10),F11),"# of recruits distribution","ignored")</f>
+        <v># of recruits distribution</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>90</v>
@@ -1402,7 +1897,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -1415,12 +1910,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="F19" s="2" t="n">
         <v>100</v>
       </c>
@@ -1429,12 +1920,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="F20" s="2" t="n">
         <v>105</v>
       </c>
@@ -1443,12 +1930,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="F21" s="2" t="n">
         <v>110</v>
       </c>
@@ -1457,36 +1940,38 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
+      <c r="A23" s="6" t="str">
+        <f aca="false">IF(B12,"ignored","Recruitment age distribution")</f>
+        <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>47</v>
+      <c r="E23" s="6" t="str">
+        <f aca="false">IF(F12,"ignored","Recruitment age distribution")</f>
+        <v>Recruitment age distribution</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1630,57 +2115,59 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>53</v>
+      <c r="A5" s="6" t="str">
+        <f aca="false">IF(B4,"Probability of attrition/period","ignored")</f>
+        <v>ignored</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
+      <c r="A7" s="6" t="str">
+        <f aca="false">IF(B4,"ignored","Attrition rate")</f>
+        <v>Attrition rate</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1761,49 +2248,49 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -1811,7 +2298,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>67</v>
@@ -1848,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Attrition" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Retirement" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Misc" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Output plots" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Misc" sheetId="9" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -248,9 +249,6 @@
     <t xml:space="preserve">Fixed recruitment age?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pointwise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Piecewise Linear</t>
   </si>
   <si>
@@ -288,6 +286,57 @@
   </si>
   <si>
     <t xml:space="preserve">Max retirement age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subpopulation graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show plot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show flux in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show flux out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show net flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count breakdown by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakdown by Transition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show percentage</t>
   </si>
 </sst>
 </file>
@@ -300,7 +349,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -339,6 +388,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,7 +470,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +500,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,7 +595,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -531,10 +606,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0634593592253013"/>
-          <c:y val="0.0513428120063191"/>
-          <c:w val="0.89996909446791"/>
-          <c:h val="0.82132701421801"/>
+          <c:x val="0.0633736205990541"/>
+          <c:y val="0.0513915243516762"/>
+          <c:w val="0.899421965317919"/>
+          <c:h val="0.820208728652751"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -636,11 +711,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19037526"/>
-        <c:axId val="39433099"/>
+        <c:axId val="28921347"/>
+        <c:axId val="47740609"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19037526"/>
+        <c:axId val="28921347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,12 +750,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39433099"/>
+        <c:crossAx val="47740609"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39433099"/>
+        <c:axId val="47740609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19037526"/>
+        <c:crossAx val="28921347"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>136800</xdr:colOff>
+      <xdr:colOff>134640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -791,7 +866,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="4950000"/>
-        <a:ext cx="3494160" cy="2278440"/>
+        <a:ext cx="3425040" cy="2276280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -817,9 +892,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,17 +994,17 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
       <selection pane="bottomRight" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1226,12 +1301,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,12 +1547,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1621,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1655,13 +1732,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1752,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>49</v>
@@ -1746,10 +1823,10 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="str">
         <f aca="false">IF(F10,"Min recruitment","ignored")</f>
-        <v>ignored</v>
+        <v>Min recruitment</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>920</v>
+        <v>350</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
@@ -1758,10 +1835,10 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="str">
         <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
-        <v>Recruitment</v>
+        <v>ignored</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -1769,10 +1846,10 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="str">
         <f aca="false">IF(F10,"Max recruitment",IF(F11,"ignored","Recruitment"))</f>
-        <v>ignored</v>
+        <v>Max recruitment</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>6</v>
@@ -1789,7 +1866,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,11 +1875,11 @@
         <v>Random recruitment</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6" t="str">
         <f aca="false">IF(F10,"ignored","Random recruitment")</f>
-        <v>Random recruitment</v>
+        <v>ignored</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1</v>
@@ -1848,7 +1925,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
-        <v>ignored</v>
+        <v># of recruits distribution</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>61</v>
@@ -1857,36 +1934,36 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="str">
         <f aca="false">IF(AND(NOT(F10),F11),"# of recruits distribution","ignored")</f>
-        <v># of recruits distribution</v>
+        <v>ignored</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>90</v>
@@ -1897,10 +1974,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>95</v>
@@ -1910,8 +1987,12 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="2" t="n">
         <v>100</v>
       </c>
@@ -1945,7 +2026,7 @@
         <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1954,24 +2035,24 @@
         <v>Recruitment age distribution</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,19 +2201,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
@@ -2143,7 +2224,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
@@ -2167,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,24 +2329,24 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2287,7 +2368,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>45</v>
@@ -2298,7 +2379,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>67</v>
@@ -2340,6 +2421,374 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="M5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3 B6 F6 J6 N6" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B7:B10 F7:F10 J7:J10 N7:N10 B13:B16 F13:F16 J13:J16 N13:N16" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5 J5 N5 B12 F12 J12 N12" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2348,17 +2797,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+      <c r="A1" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="11" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -595,7 +595,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -606,10 +606,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0633736205990541"/>
-          <c:y val="0.0513915243516762"/>
-          <c:w val="0.899421965317919"/>
-          <c:h val="0.820208728652751"/>
+          <c:x val="0.0634663206833171"/>
+          <c:y val="0.0514077823473584"/>
+          <c:w val="0.899124229646448"/>
+          <c:h val="0.819835495096488"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -711,11 +711,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28921347"/>
-        <c:axId val="47740609"/>
+        <c:axId val="33521932"/>
+        <c:axId val="61776969"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28921347"/>
+        <c:axId val="33521932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,12 +750,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47740609"/>
+        <c:crossAx val="61776969"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47740609"/>
+        <c:axId val="61776969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28921347"/>
+        <c:crossAx val="33521932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134640</xdr:colOff>
+      <xdr:colOff>133920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -866,7 +866,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="4950000"/>
-        <a:ext cx="3425040" cy="2276280"/>
+        <a:ext cx="3329280" cy="2275560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -892,9 +892,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -943,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -1003,8 +1002,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,8 +1305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,12 +1515,12 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B13:C13 B18:C18 B23:C23 B28:C29" type="none">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26" type="list">
-      <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1552,8 +1551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1725,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1737,8 +1735,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,7 +1824,7 @@
         <v>Min recruitment</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
@@ -1849,7 +1847,7 @@
         <v>Max recruitment</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>6</v>
@@ -1960,7 +1958,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -1974,7 +1972,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="n">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3</v>
@@ -1988,7 +1986,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2201,8 +2199,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,8 +2332,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,18 +2421,18 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2448,7 @@
         <v>76</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2795,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -222,7 +222,46 @@
     <t xml:space="preserve">Min time required in start state</t>
   </si>
   <si>
+    <t xml:space="preserve"># of extra conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of extra attribute changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max # of attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!! -1 for infinite, 0 for length of prob vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forced resignation on failure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!! -1 for infinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of transition probs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of transition probs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Master Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experienced Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra attribute changes</t>
   </si>
   <si>
     <t xml:space="preserve">Recruitment parameters</t>
@@ -495,11 +534,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +634,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -606,10 +645,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0634663206833171"/>
-          <c:y val="0.0514077823473584"/>
-          <c:w val="0.899124229646448"/>
-          <c:h val="0.819835495096488"/>
+          <c:x val="0.06331241595697"/>
+          <c:y val="0.051464766429137"/>
+          <c:w val="0.898588077095473"/>
+          <c:h val="0.818527315914489"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -711,11 +750,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33521932"/>
-        <c:axId val="61776969"/>
+        <c:axId val="90552175"/>
+        <c:axId val="33707472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33521932"/>
+        <c:axId val="90552175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,12 +789,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61776969"/>
+        <c:crossAx val="33707472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61776969"/>
+        <c:axId val="33707472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33521932"/>
+        <c:crossAx val="90552175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -866,7 +905,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="4950000"/>
-        <a:ext cx="3329280" cy="2275560"/>
+        <a:ext cx="3212280" cy="2273040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -887,13 +926,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,17 +1033,16 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,20 +1332,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1471,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1479,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,10 +1495,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1506,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,17 +1530,52 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1511,15 +1584,15 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B12 B17 B22 B27" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B12 B17 B22 B27 B32" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26 B31" type="list">
       <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B13:C13 B18:C18 B23:C23 B28:C29" type="none">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B13:C13 B18:C18 B23:C23 B28:C28 B33:C34" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1539,19 +1612,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,85 +1699,385 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B25" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="12">
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B7 B12:B14" type="none">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B7 B20:B22 B35:B37" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10 C17" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B14 B29 B46" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10 C25 C40" type="list">
       <formula1>"years,months"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8 B10 B15 B17" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8 B10 B23 B25 B38 B40" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B16" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B24 B39" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B16 B31 B48" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B17:B18 B32:B33 B49" type="decimal">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 B15 B28 B30 B45 B47" type="whole">
+      <formula1>-1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B11:B12 B26:B27 B41 B43" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C42" type="list">
+      <formula1>Misc!$C$1:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D42 B44:C44" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1735,19 +2109,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
@@ -1755,21 +2129,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
@@ -1778,7 +2152,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
@@ -1808,74 +2182,74 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="7" t="str">
         <f aca="false">IF(B10,"Min recruitment","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="str">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="str">
         <f aca="false">IF(F10,"Min recruitment","ignored")</f>
         <v>Min recruitment</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="7" t="str">
         <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
         <v>ignored</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="str">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="str">
         <f aca="false">IF(F10,"Max recruitment",IF(F11,"ignored","Recruitment"))</f>
         <v>Max recruitment</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="7" t="str">
         <f aca="false">IF(B10,"ignored","Random recruitment")</f>
         <v>Random recruitment</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" s="7" t="str">
         <f aca="false">IF(F10,"ignored","Random recruitment")</f>
         <v>ignored</v>
       </c>
@@ -1885,75 +2259,75 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="7" t="str">
         <f aca="false">IF(B12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="str">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="str">
         <f aca="false">IF(F12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="7" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
         <v># of recruits distribution</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="str">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="str">
         <f aca="false">IF(AND(NOT(F10),F11),"# of recruits distribution","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>63</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,38 +2393,38 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="7" t="str">
         <f aca="false">IF(B12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="str">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="str">
         <f aca="false">IF(F12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>63</v>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,27 +2565,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
@@ -2222,63 +2596,55 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="7" t="str">
         <f aca="false">IF(B4,"Probability of attrition/period","ignored")</f>
         <v>ignored</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="7" t="str">
         <f aca="false">IF(B4,"ignored","Attrition rate")</f>
         <v>Attrition rate</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>69</v>
+      <c r="C7" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>0.04</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.0075</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>0.01</v>
+      <c r="C10" s="6" t="n">
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -2332,19 +2698,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2366,7 +2732,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>45</v>
@@ -2377,7 +2743,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>67</v>
@@ -2421,63 +2787,62 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2"/>
       <c r="M5" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
@@ -2486,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
@@ -2495,7 +2860,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>6</v>
@@ -2504,7 +2869,7 @@
         <v>49</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>12</v>
@@ -2515,25 +2880,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>1</v>
@@ -2541,25 +2906,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>1</v>
@@ -2567,25 +2932,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>1</v>
@@ -2593,25 +2958,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>1</v>
@@ -2619,61 +2984,61 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>1</v>
@@ -2681,25 +3046,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>1</v>
@@ -2707,25 +3072,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>1</v>
@@ -2733,25 +3098,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>1</v>
@@ -2795,7 +3160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Attributes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="States" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Transitions" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Attrition" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Retirement" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Output plots" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Misc" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="State Map" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Recruitment" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Attrition" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Retirement" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Output plots" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Misc" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -99,6 +100,9 @@
     <t xml:space="preserve">Number of DB commits</t>
   </si>
   <si>
+    <t xml:space="preserve">Run simulation?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnel attributes</t>
   </si>
   <si>
@@ -171,6 +175,9 @@
     <t xml:space="preserve">Initial state</t>
   </si>
   <si>
+    <t xml:space="preserve">Target # of personnel</t>
+  </si>
+  <si>
     <t xml:space="preserve"># requirements</t>
   </si>
   <si>
@@ -210,6 +217,12 @@
     <t xml:space="preserve">End state</t>
   </si>
   <si>
+    <t xml:space="preserve"># of extra conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of extra attribute changes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time between transition tests</t>
   </si>
   <si>
@@ -222,12 +235,6 @@
     <t xml:space="preserve">Min time required in start state</t>
   </si>
   <si>
-    <t xml:space="preserve"># of extra conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># of extra attribute changes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max # of attempts</t>
   </si>
   <si>
@@ -262,6 +269,18 @@
   </si>
   <si>
     <t xml:space="preserve">Extra attribute changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot of State Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">States to show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">States</t>
   </si>
   <si>
     <t xml:space="preserve">Recruitment parameters</t>
@@ -418,6 +437,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -435,15 +461,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +473,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -509,7 +540,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,7 +561,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,15 +605,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,7 +668,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -634,7 +693,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -645,10 +704,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.06331241595697"/>
-          <c:y val="0.051464766429137"/>
-          <c:w val="0.898588077095473"/>
-          <c:h val="0.818527315914489"/>
+          <c:x val="0.0634230108757871"/>
+          <c:y val="0.0514973855173507"/>
+          <c:w val="0.898225529479107"/>
+          <c:h val="0.817778482015529"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -750,11 +809,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90552175"/>
-        <c:axId val="33707472"/>
+        <c:axId val="19853575"/>
+        <c:axId val="442317"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90552175"/>
+        <c:axId val="19853575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,12 +848,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33707472"/>
+        <c:crossAx val="442317"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33707472"/>
+        <c:axId val="442317"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90552175"/>
+        <c:crossAx val="19853575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -894,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>129960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -905,7 +964,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33480" y="4950000"/>
-        <a:ext cx="3212280" cy="2273040"/>
+        <a:ext cx="3144240" cy="2271600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -923,15 +982,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
@@ -996,11 +1055,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -1022,6 +1093,45 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1042,18 +1152,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>4</v>
@@ -1061,23 +1171,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>2</v>
@@ -1085,18 +1195,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -1104,7 +1214,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>75</v>
@@ -1112,7 +1222,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>25</v>
@@ -1120,23 +1230,23 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>2</v>
@@ -1144,18 +1254,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -1163,7 +1273,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>60</v>
@@ -1171,7 +1281,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>40</v>
@@ -1179,23 +1289,23 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>3</v>
@@ -1203,18 +1313,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -1222,7 +1332,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>10</v>
@@ -1230,7 +1340,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>30</v>
@@ -1238,7 +1348,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>60</v>
@@ -1246,23 +1356,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>2</v>
@@ -1270,18 +1380,18 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -1289,7 +1399,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>80</v>
@@ -1297,7 +1407,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>20</v>
@@ -1332,30 +1442,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>6</v>
@@ -1363,237 +1473,289 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
+      <c r="B12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
+      <c r="B19" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
+      <c r="B37" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B12 B17 B22 B27 B32" type="whole">
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B8 B14 B20 B26 B32 B38" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B11 B16 B21 B26 B31" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 B12 B18 B24 B30 B36" type="list">
       <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B13:C13 B18:C18 B23:C23 B28:C28 B33:C34" type="none">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B9:C9 B15:C15 B21:C21 B27:C27 B33:C33 B39:C40" type="none">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 B13 B19 B25 B31 B37" type="whole">
+      <formula1>-1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1614,29 +1776,29 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>3</v>
@@ -1644,387 +1806,387 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B17" s="13" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="13" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B28" s="10" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B29" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B32" s="13" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="13" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
+      <c r="B40" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B46" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B48" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B49" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2045,15 +2207,15 @@
       <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10 C25 C40" type="list">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C12 C27 C44" type="list">
       <formula1>"years,months"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8 B10 B23 B25 B38 B40" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10 B12 B25 B27 B42 B44" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B24 B39" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B11 B26 B43" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2069,15 +2231,15 @@
       <formula1>-1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B11:B12 B26:B27 B41 B43" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 B23:B24 B38 B40" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C42" type="list">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C39" type="list">
       <formula1>Misc!$C$1:$C$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D42 B44:C44" type="none">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D39 B41:C41" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2097,6 +2259,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2109,19 +2359,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
@@ -2129,205 +2379,205 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="14" t="str">
         <f aca="false">IF(B10,"Min recruitment","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="str">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="str">
         <f aca="false">IF(F10,"Min recruitment","ignored")</f>
         <v>Min recruitment</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="14" t="str">
         <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
         <v>ignored</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="str">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="str">
         <f aca="false">IF(F10,"Max recruitment",IF(F11,"ignored","Recruitment"))</f>
         <v>Max recruitment</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="14" t="str">
         <f aca="false">IF(B10,"ignored","Random recruitment")</f>
         <v>Random recruitment</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="str">
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="str">
         <f aca="false">IF(F10,"ignored","Random recruitment")</f>
         <v>ignored</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="14" t="str">
         <f aca="false">IF(B12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="str">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="str">
         <f aca="false">IF(F12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="14" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
         <v># of recruits distribution</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="str">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="str">
         <f aca="false">IF(AND(NOT(F10),F11),"# of recruits distribution","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,38 +2643,38 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="14" t="str">
         <f aca="false">IF(B12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="str">
+        <v>83</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="str">
         <f aca="false">IF(F12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>76</v>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,12 +2766,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="8">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B12 F10:F12" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 F6" type="decimal">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B12 F10:F12" type="list">
-      <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 F13" type="decimal">
@@ -2560,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2573,61 +2823,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="str">
+      <c r="A5" s="14" t="str">
         <f aca="false">IF(B4,"Probability of attrition/period","ignored")</f>
         <v>ignored</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="15" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="14" t="str">
         <f aca="false">IF(B4,"ignored","Attrition rate")</f>
         <v>Attrition rate</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>82</v>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="15" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2635,7 +2885,7 @@
       <c r="B9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="15" t="n">
         <v>0.0075</v>
       </c>
     </row>
@@ -2643,7 +2893,7 @@
       <c r="B10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="15" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -2685,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2698,41 +2948,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>45</v>
@@ -2743,7 +2993,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>67</v>
@@ -2780,37 +3030,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>87</v>
+      <c r="A1" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>89</v>
+      <c r="A3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -2818,307 +3068,307 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2"/>
       <c r="M5" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="J8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="N8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="N9" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="J10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="N10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>98</v>
+      <c r="A11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="F13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="N13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="J14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="N14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="N15" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="J16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="N16" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,43 +3395,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Attrition" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Retirement" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Output plots" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Misc" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="Misc" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -64,8 +64,118 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">st</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> row: Computes the total weight of the distribution.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Other rows: Equals the cell above.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">st</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> row: Computes the total weight of the distribution.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Other rows: Equals the cell above.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -130,6 +240,12 @@
     <t xml:space="preserve">Years</t>
   </si>
   <si>
+    <t xml:space="preserve">Normalised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total weight</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -175,15 +291,15 @@
     <t xml:space="preserve">Initial state</t>
   </si>
   <si>
+    <t xml:space="preserve"># requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">Target # of personnel</t>
   </si>
   <si>
-    <t xml:space="preserve"># requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements</t>
-  </si>
-  <si>
     <t xml:space="preserve">Senior</t>
   </si>
   <si>
@@ -292,10 +408,13 @@
     <t xml:space="preserve">Name of recruitment type</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 2</t>
+    <t xml:space="preserve">Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix</t>
   </si>
   <si>
     <t xml:space="preserve">Time between recruitment cycles</t>
@@ -307,16 +426,22 @@
     <t xml:space="preserve">Fixed recruitment age?</t>
   </si>
   <si>
+    <t xml:space="preserve">Pointwise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piecewise Linear</t>
   </si>
   <si>
+    <t xml:space="preserve">Distribution nodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount</t>
   </si>
   <si>
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">Uniform</t>
+    <t xml:space="preserve">Piecewise Uniform</t>
   </si>
   <si>
     <t xml:space="preserve">Age in years</t>
@@ -395,6 +520,27 @@
   </si>
   <si>
     <t xml:space="preserve">Show percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS NOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=</t>
   </si>
 </sst>
 </file>
@@ -407,7 +553,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,6 +590,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -462,7 +622,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +643,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
   </fills>
@@ -540,7 +706,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,7 +739,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,15 +763,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,7 +791,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,7 +810,13 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf/>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -637,7 +825,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -693,7 +881,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -704,10 +892,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0634230108757871"/>
-          <c:y val="0.0514973855173507"/>
-          <c:w val="0.898225529479107"/>
-          <c:h val="0.817778482015529"/>
+          <c:x val="0.0632911392405063"/>
+          <c:y val="0.0514869063470928"/>
+          <c:w val="0.89787760540592"/>
+          <c:h val="0.817280662819944"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -718,7 +906,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Recruitment!$C$24:$C$24</c:f>
+              <c:f>Recruitment!$C$25:$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -755,12 +943,12 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Recruitment!$B$25:$B$30</c:f>
+              <c:f>Recruitment!$B$26:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -782,7 +970,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Recruitment!$C$25:$C$30</c:f>
+              <c:f>Recruitment!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -809,11 +997,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19853575"/>
-        <c:axId val="442317"/>
+        <c:axId val="15319353"/>
+        <c:axId val="30741354"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19853575"/>
+        <c:axId val="15319353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,12 +1036,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442317"/>
+        <c:crossAx val="30741354"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442317"/>
+        <c:axId val="30741354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +1085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19853575"/>
+        <c:crossAx val="15319353"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -916,8 +1104,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.753080185821046"/>
-          <c:y val="0.161264946507237"/>
+          <c:x val="0.753054935713527"/>
+          <c:y val="0.161147203295833"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -948,14 +1136,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -963,8 +1151,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33480" y="4950000"/>
-        <a:ext cx="3144240" cy="2271600"/>
+        <a:off x="33480" y="5112720"/>
+        <a:ext cx="3782160" cy="2432880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -985,14 +1173,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,11 +1264,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="date">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="date">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1101,27 +1289,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="n">
+      <c r="A1" s="22" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="22" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1140,19 +1373,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,21 +1445,43 @@
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>75</v>
       </c>
+      <c r="D10" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C10),C10/E10,0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="true">SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B7-1)),"&gt; 0")</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C11),C11/E11,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <f aca="false">E10</f>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,21 +1526,43 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>60</v>
       </c>
+      <c r="D18" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C18),C18/E18,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="true">SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B15-1)),"&gt; 0")</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C19),C19/E19,0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <f aca="false">E18</f>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,29 +1607,59 @@
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="D26" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C26),C26/E26,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="true">SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B23-1)),"&gt; 0")</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="D27" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C27),C27/E27,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <f aca="false">E26</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C28),C28/E28,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <f aca="false">E27</f>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,21 +1704,43 @@
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>80</v>
       </c>
+      <c r="D35" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C35),C35/E35,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="true">SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B32-1)),"&gt; 0")</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(C36),C36/E36,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <f aca="false">E35</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1434,6 +1764,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1444,28 +1775,29 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>6</v>
@@ -1473,268 +1805,268 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B33" s="13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>-1</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>21</v>
+      <c r="B39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
+      <c r="A40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="13" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +2074,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B8 B14 B20 B26 B32 B38" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B13 B19 B25 B31 B37" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1750,11 +2082,11 @@
       <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B9:C9 B15:C15 B21:C21 B27:C27 B33:C33 B39:C40" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B14:C14 B20:C20 B26:C26 B32:C32 B38:C39" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 B13 B19 B25 B31 B37" type="whole">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B15 B21 B27 B33 B40" type="whole">
       <formula1>-1</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1777,28 +2109,29 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>3</v>
@@ -1806,387 +2139,387 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B8" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B15" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B16" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="B17" s="17" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="17" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B23" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B24" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B25" s="14" t="n">
         <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B26" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B27" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B29" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B30" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B31" s="14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="B32" s="17" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13" t="n">
+      <c r="B33" s="17" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B38" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B40" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B42" s="14" t="n">
         <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B43" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B44" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B45" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B46" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B47" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B48" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="B49" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,21 +2527,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="11">
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B7 B20:B22 B35:B37" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B7 B20:B22 B35:B37 D39 B41:C41" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B14 B29 B46" type="list">
-      <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C12 C27 C44" type="list">
-      <formula1>"years,months"</formula1>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 B23:B24 B38 B40" type="whole">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10 B12 B25 B27 B42 B44" type="decimal">
@@ -2219,6 +2548,18 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C12 C27 C44" type="list">
+      <formula1>"years,months"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 B15 B28 B30 B45 B47" type="whole">
+      <formula1>-1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B14 B29 B46" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B16 B31 B48" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
@@ -2227,20 +2568,8 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 B15 B28 B30 B45 B47" type="whole">
-      <formula1>-1</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 B23:B24 B38 B40" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C39" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C39" type="list">
       <formula1>Misc!$C$1:$C$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D39 B41:C41" type="none">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2262,20 +2591,25 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1</v>
@@ -2283,7 +2617,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>4</v>
@@ -2291,25 +2625,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,418 +2681,971 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>53</v>
+      <c r="H6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>53</v>
+      <c r="M7" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="18" t="str">
         <f aca="false">IF(B10,"Min recruitment","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="str">
-        <f aca="false">IF(F10,"Min recruitment","ignored")</f>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="str">
+        <f aca="false">IF(G10,"Min recruitment","ignored")</f>
         <v>Min recruitment</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f aca="false">IF(L10,"Min recruitment","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="M8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="18" t="str">
         <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
         <v>ignored</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="str">
-        <f aca="false">IF(F10,"Max recruitment",IF(F11,"ignored","Recruitment"))</f>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="str">
+        <f aca="false">IF(G10,"Max recruitment",IF(G11,"ignored","Recruitment"))</f>
         <v>Max recruitment</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f aca="false">IF(L10,"Max recruitment",IF(L11,"ignored","Recruitment"))</f>
+        <v>Recruitment</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>1</v>
+      <c r="F10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="18" t="str">
         <f aca="false">IF(B10,"ignored","Random recruitment")</f>
         <v>Random recruitment</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="str">
-        <f aca="false">IF(F10,"ignored","Random recruitment")</f>
+      <c r="F11" s="18" t="str">
+        <f aca="false">IF(G10,"ignored","Random recruitment")</f>
         <v>ignored</v>
       </c>
-      <c r="F11" s="7" t="n">
-        <v>1</v>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f aca="false">IF(L10,"ignored","Random recruitment")</f>
+        <v>Random recruitment</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="18" t="str">
         <f aca="false">IF(B12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B13" s="3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="str">
+        <f aca="false">IF(G12,"Recruitment age","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="H13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="str">
-        <f aca="false">IF(F12,"Recruitment age","ignored")</f>
+      <c r="K13" s="18" t="str">
+        <f aca="false">IF(L12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="L13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="M13" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="18" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
         <v># of recruits distribution</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="str">
-        <f aca="false">IF(AND(NOT(F10),F11),"# of recruits distribution","ignored")</f>
+        <v>83</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="str">
+        <f aca="false">IF(AND(NOT(G10),G11),"# of recruits distribution","ignored")</f>
         <v>ignored</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="K15" s="18" t="str">
+        <f aca="false">IF(AND(NOT(L10),L11),"# of recruits distribution","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="A16" s="18" t="str">
+        <f aca="false">IF(AND(NOT(B10),B11),"# of distribution nodes","ignored")</f>
+        <v># of distribution nodes</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="str">
+        <f aca="false">IF(AND(NOT(G10),G11),"# of distribution nodes","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="K16" s="18" t="str">
+        <f aca="false">IF(AND(NOT(L10),L11),"# of distribution nodes","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>3</v>
+      <c r="A17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">IF(B15="Pointwise","Normalised","")</f>
+        <v>Normalised</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">IF(B15="Pointwise","Total weight","")</f>
+        <v>Total weight</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <f aca="false">IF(G15="Pointwise","Normalised","")</f>
+        <v/>
+      </c>
+      <c r="J17" s="0" t="str">
+        <f aca="false">IF(G15="Pointwise","Total weight","")</f>
+        <v/>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <f aca="false">IF(L15="Pointwise","Normalised","")</f>
+        <v/>
+      </c>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(L15="Pointwise","Total weight","")</f>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(E18),IF(ISNUMBER(C18),C18/E18,0),"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="true">IF(B15="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B16-1)),"&gt; 0"),"")</f>
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>1</v>
+      <c r="I18" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J18),IF(ISNUMBER(H18),H18/J18,0),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="0" t="str">
+        <f aca="true">IF(G15="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+G16-1)),"&gt; 0"),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O18),IF(ISNUMBER(M18),M18/O18,0),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="0" t="str">
+        <f aca="true">IF(L15="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+L16-1)),"&gt; 0"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(E19),IF(ISNUMBER(C19),C19/E19,0),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <f aca="false">E18</f>
         <v>100</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J19),IF(ISNUMBER(H19),H19/J19,0),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f aca="false">J18</f>
+        <v/>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O19),IF(ISNUMBER(M19),M19/O19,0),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f aca="false">O18</f>
+        <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="F20" s="2" t="n">
+      <c r="B20" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(E20),IF(ISNUMBER(C20),C20/E20,0),"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <f aca="false">E19</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J20),IF(ISNUMBER(H20),H20/J20,0),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="9" t="str">
+        <f aca="false">J19</f>
+        <v/>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O20),IF(ISNUMBER(M20),M20/O20,0),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="9" t="str">
+        <f aca="false">O19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <f aca="false">IF(ISNUMBER(E21),IF(ISNUMBER(C21),C21/E21,0),"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <f aca="false">E20</f>
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="F21" s="2" t="n">
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J21),IF(ISNUMBER(H21),H21/J21,0),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f aca="false">J20</f>
+        <v/>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O21),IF(ISNUMBER(M21),M21/O21,0),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="9" t="str">
+        <f aca="false">O20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I22" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J22),IF(ISNUMBER(H22),H22/J22,0),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f aca="false">J21</f>
+        <v/>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O22),IF(ISNUMBER(M22),M22/O22,0),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="9" t="str">
+        <f aca="false">O21</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="str">
-        <f aca="false">IF(B12,"ignored","Recruitment age distribution")</f>
+      <c r="A23" s="18" t="str">
+        <f aca="false">IF(B$12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="str">
-        <f aca="false">IF(F12,"ignored","Recruitment age distribution")</f>
+        <v>88</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="str">
+        <f aca="false">IF(B$12,"ignored","# of distribution nodes")</f>
+        <v># of distribution nodes</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="str">
+        <f aca="false">IF(G$12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="K24" s="18" t="str">
+        <f aca="false">IF(L$12,"ignored","Recruitment age distribution")</f>
+        <v>Recruitment age distribution</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>18</v>
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">IF(B23="Pointwise","Normalised","")</f>
+        <v/>
+      </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">IF(B23="Pointwise","Total weight","")</f>
+        <v/>
+      </c>
+      <c r="F25" s="18" t="str">
+        <f aca="false">IF(G$12,"ignored","# of distribution nodes")</f>
+        <v># of distribution nodes</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="K25" s="18" t="str">
+        <f aca="false">IF(L$12,"ignored","# of distribution nodes")</f>
+        <v># of distribution nodes</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E26),IF(ISNUMBER(C26),C26/E26,0),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="0" t="str">
+        <f aca="true">IF(B23="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B24-1)),"&gt; 0"),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="0" t="str">
+        <f aca="false">IF(G24="Pointwise","Normalised","")</f>
+        <v/>
+      </c>
+      <c r="J26" s="0" t="str">
+        <f aca="false">IF(G24="Pointwise","Total weight","")</f>
+        <v/>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="0" t="str">
+        <f aca="false">IF(L24="Pointwise","Normalised","")</f>
+        <v/>
+      </c>
+      <c r="O26" s="0" t="str">
+        <f aca="false">IF(L24="Pointwise","Total weight","")</f>
+        <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E27),IF(ISNUMBER(C27),C27/E27,0),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f aca="false">E26</f>
+        <v/>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J27),IF(ISNUMBER(H27),H27/J27,0),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="0" t="str">
+        <f aca="true">IF(G24="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+G25-1)),"&gt; 0"),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N27" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O27),IF(ISNUMBER(M27),M27/O27,0),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="0" t="str">
+        <f aca="true">IF(L24="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+L25-1)),"&gt; 0"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E28),IF(ISNUMBER(C28),C28/E28,0),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f aca="false">E27</f>
+        <v/>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J28),IF(ISNUMBER(H28),H28/J28,0),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f aca="false">J27</f>
+        <v/>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N28" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O28),IF(ISNUMBER(M28),M28/O28,0),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="9" t="str">
+        <f aca="false">O27</f>
+        <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E29),IF(ISNUMBER(C29),C29/E29,0),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="9" t="str">
+        <f aca="false">E28</f>
+        <v/>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J29),IF(ISNUMBER(H29),H29/J29,0),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f aca="false">J28</f>
+        <v/>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O29),IF(ISNUMBER(M29),M29/O29,0),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="9" t="str">
+        <f aca="false">O28</f>
+        <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E30),IF(ISNUMBER(C30),C30/E30,0),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f aca="false">E29</f>
+        <v/>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J30),IF(ISNUMBER(H30),H30/J30,0),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f aca="false">J29</f>
+        <v/>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N30" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O30),IF(ISNUMBER(M30),M30/O30,0),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="9" t="str">
+        <f aca="false">O29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(E31),IF(ISNUMBER(C31),C31/E31,0),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="9" t="str">
+        <f aca="false">E30</f>
+        <v/>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J31),IF(ISNUMBER(H31),H31/J31,0),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f aca="false">J30</f>
+        <v/>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O31),IF(ISNUMBER(M31),M31/O31,0),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="9" t="str">
+        <f aca="false">O30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(J32),IF(ISNUMBER(H32),H32/J32,0),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f aca="false">J31</f>
+        <v/>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8" t="str">
+        <f aca="false">IF(ISNUMBER(O32),IF(ISNUMBER(M32),M32/O32,0),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="9" t="str">
+        <f aca="false">O31</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2766,36 +3653,36 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B12 F10:F12" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B12 G10:G12 L10:L12" type="list">
       <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 F6" type="decimal">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 F13" type="decimal">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B23 F23" type="list">
-      <formula1>"Pointwise,Uniform"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 F7" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 G6 L6" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 F8:F9" type="decimal">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 G7 L7" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15 F15" type="list">
-      <formula1>"Pointwise,Uniform,Piecewise Linear"</formula1>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B9 G8:G9 L8:L9" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13 G13 L13" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B16 G16 L16 B24 G25 L25" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15 G15 L15 B23 G24 L24" type="list">
+      <formula1>Misc!$B$1:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2806,7 +3693,8 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2818,83 +3706,83 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="18" t="str">
         <f aca="false">IF(B4,"Probability of attrition/period","ignored")</f>
         <v>ignored</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="19" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="18" t="str">
         <f aca="false">IF(B4,"ignored","Attrition rate")</f>
         <v>Attrition rate</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>88</v>
+      <c r="C7" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="n">
-        <v>0.01</v>
+      <c r="C8" s="19" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="n">
-        <v>0.0075</v>
+      <c r="C9" s="19" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="n">
-        <v>0.005</v>
+      <c r="C10" s="19" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2948,41 +3836,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>45</v>
@@ -2993,7 +3881,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>67</v>
@@ -3037,30 +3925,31 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>93</v>
+      <c r="A1" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>95</v>
+      <c r="A3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -3068,87 +3957,87 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J5" s="2"/>
       <c r="M5" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>1</v>
@@ -3156,25 +4045,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N8" s="7" t="n">
         <v>1</v>
@@ -3182,25 +4071,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>1</v>
@@ -3208,25 +4097,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7" t="n">
         <v>1</v>
@@ -3234,61 +4123,61 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7" t="n">
         <v>1</v>
@@ -3296,25 +4185,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N14" s="7" t="n">
         <v>1</v>
@@ -3322,25 +4211,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N15" s="7" t="n">
         <v>1</v>
@@ -3348,25 +4237,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N16" s="7" t="n">
         <v>1</v>
@@ -3374,16 +4263,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5 J5 N5 B12 F12 J12 N12" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3 B6 F6 J6 N6" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B7:B10 F7:F10 J7:J10 N7:N10 B13:B16 F13:F16 J13:J16 N13:N16" type="list">
       <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5 J5 N5 B12 F12 J12 N12" type="none">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -125,6 +125,21 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">* Pointwise: only the listed values are possible.
+* Piecewise Uniform: interval randomly chosen based on entered weights, then uniformly random within interval (endpoint excluded). Weight of point with highest value gets ignored.
+* Piecewise Linear: density function is (normalization of) linear interpolation between entered  points and weights.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -553,7 +568,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -602,17 +617,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -791,7 +795,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,7 +838,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -868,7 +872,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -879,290 +883,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0632911392405063"/>
-          <c:y val="0.0514869063470928"/>
-          <c:w val="0.89787760540592"/>
-          <c:h val="0.817280662819944"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Recruitment!$C$25:$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Weight</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Recruitment!$B$26:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Recruitment!$C$26:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="15319353"/>
-        <c:axId val="30741354"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="15319353"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30741354"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="30741354"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15319353"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.753054935713527"/>
-          <c:y val="0.161147203295833"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="33480" y="5112720"/>
-        <a:ext cx="3782160" cy="2432880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,9 +898,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,13 +1011,13 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,8 +1105,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,18 +1494,17 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,18 +1827,18 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
       <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,9 +2314,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,19 +2405,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,8 +3410,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3711,8 +3427,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,8 +3552,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,8 +3651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/simParFile.xlsx
+++ b/simParFile.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Attributes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="States" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Transitions" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="State Map" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Recruitment" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Attrition" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Attrition" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Attributes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="States" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Transitions" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="State Map" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Recruitment" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Retirement" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Output plots" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Misc" sheetId="10" state="visible" r:id="rId11"/>
@@ -64,7 +64,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -119,7 +119,95 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Leave blank for default attrition scheme.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -190,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="130">
   <si>
     <t xml:space="preserve">General parameters</t>
   </si>
@@ -228,6 +316,42 @@
     <t xml:space="preserve">Run simulation?</t>
   </si>
   <si>
+    <t xml:space="preserve">Attrition parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default attrition scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other attrition schemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of single attrition period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed attrition rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnel attributes</t>
   </si>
   <si>
@@ -252,9 +376,6 @@
     <t xml:space="preserve">Values</t>
   </si>
   <si>
-    <t xml:space="preserve">Years</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normalised</t>
   </si>
   <si>
@@ -306,7 +427,7 @@
     <t xml:space="preserve">Initial state</t>
   </si>
   <si>
-    <t xml:space="preserve"># requirements</t>
+    <t xml:space="preserve">Attrition regime</t>
   </si>
   <si>
     <t xml:space="preserve">Requirements</t>
@@ -336,9 +457,6 @@
     <t xml:space="preserve">Number of transitions</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Senior Promotion</t>
   </si>
   <si>
@@ -357,9 +475,6 @@
     <t xml:space="preserve">Time between transition tests</t>
   </si>
   <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offset of cycle</t>
   </si>
   <si>
@@ -462,18 +577,6 @@
     <t xml:space="preserve">Age in years</t>
   </si>
   <si>
-    <t xml:space="preserve">Attrition parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of single attrition period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed attrition rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retirement parameters</t>
   </si>
   <si>
@@ -484,6 +587,15 @@
   </si>
   <si>
     <t xml:space="preserve">Max retirement age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions for retirement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EITHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satisfied</t>
   </si>
   <si>
     <t xml:space="preserve">Output graphs</t>
@@ -605,6 +717,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -614,13 +733,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -710,7 +822,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -739,7 +851,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,7 +875,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,11 +887,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,19 +911,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,6 +1005,1041 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AttrNameList" displayName="AttrNameList" ref="D1:D140" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Test 1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AttrNames" displayName="AttrNames" ref="E5:AMJ5" headerRowCount="0" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1020">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
+    <tableColumn id="32" name="Column32"/>
+    <tableColumn id="33" name="Column33"/>
+    <tableColumn id="34" name="Column34"/>
+    <tableColumn id="35" name="Column35"/>
+    <tableColumn id="36" name="Column36"/>
+    <tableColumn id="37" name="Column37"/>
+    <tableColumn id="38" name="Column38"/>
+    <tableColumn id="39" name="Column39"/>
+    <tableColumn id="40" name="Column40"/>
+    <tableColumn id="41" name="Column41"/>
+    <tableColumn id="42" name="Column42"/>
+    <tableColumn id="43" name="Column43"/>
+    <tableColumn id="44" name="Column44"/>
+    <tableColumn id="45" name="Column45"/>
+    <tableColumn id="46" name="Column46"/>
+    <tableColumn id="47" name="Column47"/>
+    <tableColumn id="48" name="Column48"/>
+    <tableColumn id="49" name="Column49"/>
+    <tableColumn id="50" name="Column50"/>
+    <tableColumn id="51" name="Column51"/>
+    <tableColumn id="52" name="Column52"/>
+    <tableColumn id="53" name="Column53"/>
+    <tableColumn id="54" name="Column54"/>
+    <tableColumn id="55" name="Column55"/>
+    <tableColumn id="56" name="Column56"/>
+    <tableColumn id="57" name="Column57"/>
+    <tableColumn id="58" name="Column58"/>
+    <tableColumn id="59" name="Column59"/>
+    <tableColumn id="60" name="Column60"/>
+    <tableColumn id="61" name="Column61"/>
+    <tableColumn id="62" name="Column62"/>
+    <tableColumn id="63" name="Column63"/>
+    <tableColumn id="64" name="Column64"/>
+    <tableColumn id="65" name="Column65"/>
+    <tableColumn id="66" name="Column66"/>
+    <tableColumn id="67" name="Column67"/>
+    <tableColumn id="68" name="Column68"/>
+    <tableColumn id="69" name="Column69"/>
+    <tableColumn id="70" name="Column70"/>
+    <tableColumn id="71" name="Column71"/>
+    <tableColumn id="72" name="Column72"/>
+    <tableColumn id="73" name="Column73"/>
+    <tableColumn id="74" name="Column74"/>
+    <tableColumn id="75" name="Column75"/>
+    <tableColumn id="76" name="Column76"/>
+    <tableColumn id="77" name="Column77"/>
+    <tableColumn id="78" name="Column78"/>
+    <tableColumn id="79" name="Column79"/>
+    <tableColumn id="80" name="Column80"/>
+    <tableColumn id="81" name="Column81"/>
+    <tableColumn id="82" name="Column82"/>
+    <tableColumn id="83" name="Column83"/>
+    <tableColumn id="84" name="Column84"/>
+    <tableColumn id="85" name="Column85"/>
+    <tableColumn id="86" name="Column86"/>
+    <tableColumn id="87" name="Column87"/>
+    <tableColumn id="88" name="Column88"/>
+    <tableColumn id="89" name="Column89"/>
+    <tableColumn id="90" name="Column90"/>
+    <tableColumn id="91" name="Column91"/>
+    <tableColumn id="92" name="Column92"/>
+    <tableColumn id="93" name="Column93"/>
+    <tableColumn id="94" name="Column94"/>
+    <tableColumn id="95" name="Column95"/>
+    <tableColumn id="96" name="Column96"/>
+    <tableColumn id="97" name="Column97"/>
+    <tableColumn id="98" name="Column98"/>
+    <tableColumn id="99" name="Column99"/>
+    <tableColumn id="100" name="Column100"/>
+    <tableColumn id="101" name="Column101"/>
+    <tableColumn id="102" name="Column102"/>
+    <tableColumn id="103" name="Column103"/>
+    <tableColumn id="104" name="Column104"/>
+    <tableColumn id="105" name="Column105"/>
+    <tableColumn id="106" name="Column106"/>
+    <tableColumn id="107" name="Column107"/>
+    <tableColumn id="108" name="Column108"/>
+    <tableColumn id="109" name="Column109"/>
+    <tableColumn id="110" name="Column110"/>
+    <tableColumn id="111" name="Column111"/>
+    <tableColumn id="112" name="Column112"/>
+    <tableColumn id="113" name="Column113"/>
+    <tableColumn id="114" name="Column114"/>
+    <tableColumn id="115" name="Column115"/>
+    <tableColumn id="116" name="Column116"/>
+    <tableColumn id="117" name="Column117"/>
+    <tableColumn id="118" name="Column118"/>
+    <tableColumn id="119" name="Column119"/>
+    <tableColumn id="120" name="Column120"/>
+    <tableColumn id="121" name="Column121"/>
+    <tableColumn id="122" name="Column122"/>
+    <tableColumn id="123" name="Column123"/>
+    <tableColumn id="124" name="Column124"/>
+    <tableColumn id="125" name="Column125"/>
+    <tableColumn id="126" name="Column126"/>
+    <tableColumn id="127" name="Column127"/>
+    <tableColumn id="128" name="Column128"/>
+    <tableColumn id="129" name="Column129"/>
+    <tableColumn id="130" name="Column130"/>
+    <tableColumn id="131" name="Column131"/>
+    <tableColumn id="132" name="Column132"/>
+    <tableColumn id="133" name="Column133"/>
+    <tableColumn id="134" name="Column134"/>
+    <tableColumn id="135" name="Column135"/>
+    <tableColumn id="136" name="Column136"/>
+    <tableColumn id="137" name="Column137"/>
+    <tableColumn id="138" name="Column138"/>
+    <tableColumn id="139" name="Column139"/>
+    <tableColumn id="140" name="Column140"/>
+    <tableColumn id="141" name="Column141"/>
+    <tableColumn id="142" name="Column142"/>
+    <tableColumn id="143" name="Column143"/>
+    <tableColumn id="144" name="Column144"/>
+    <tableColumn id="145" name="Column145"/>
+    <tableColumn id="146" name="Column146"/>
+    <tableColumn id="147" name="Column147"/>
+    <tableColumn id="148" name="Column148"/>
+    <tableColumn id="149" name="Column149"/>
+    <tableColumn id="150" name="Column150"/>
+    <tableColumn id="151" name="Column151"/>
+    <tableColumn id="152" name="Column152"/>
+    <tableColumn id="153" name="Column153"/>
+    <tableColumn id="154" name="Column154"/>
+    <tableColumn id="155" name="Column155"/>
+    <tableColumn id="156" name="Column156"/>
+    <tableColumn id="157" name="Column157"/>
+    <tableColumn id="158" name="Column158"/>
+    <tableColumn id="159" name="Column159"/>
+    <tableColumn id="160" name="Column160"/>
+    <tableColumn id="161" name="Column161"/>
+    <tableColumn id="162" name="Column162"/>
+    <tableColumn id="163" name="Column163"/>
+    <tableColumn id="164" name="Column164"/>
+    <tableColumn id="165" name="Column165"/>
+    <tableColumn id="166" name="Column166"/>
+    <tableColumn id="167" name="Column167"/>
+    <tableColumn id="168" name="Column168"/>
+    <tableColumn id="169" name="Column169"/>
+    <tableColumn id="170" name="Column170"/>
+    <tableColumn id="171" name="Column171"/>
+    <tableColumn id="172" name="Column172"/>
+    <tableColumn id="173" name="Column173"/>
+    <tableColumn id="174" name="Column174"/>
+    <tableColumn id="175" name="Column175"/>
+    <tableColumn id="176" name="Column176"/>
+    <tableColumn id="177" name="Column177"/>
+    <tableColumn id="178" name="Column178"/>
+    <tableColumn id="179" name="Column179"/>
+    <tableColumn id="180" name="Column180"/>
+    <tableColumn id="181" name="Column181"/>
+    <tableColumn id="182" name="Column182"/>
+    <tableColumn id="183" name="Column183"/>
+    <tableColumn id="184" name="Column184"/>
+    <tableColumn id="185" name="Column185"/>
+    <tableColumn id="186" name="Column186"/>
+    <tableColumn id="187" name="Column187"/>
+    <tableColumn id="188" name="Column188"/>
+    <tableColumn id="189" name="Column189"/>
+    <tableColumn id="190" name="Column190"/>
+    <tableColumn id="191" name="Column191"/>
+    <tableColumn id="192" name="Column192"/>
+    <tableColumn id="193" name="Column193"/>
+    <tableColumn id="194" name="Column194"/>
+    <tableColumn id="195" name="Column195"/>
+    <tableColumn id="196" name="Column196"/>
+    <tableColumn id="197" name="Column197"/>
+    <tableColumn id="198" name="Column198"/>
+    <tableColumn id="199" name="Column199"/>
+    <tableColumn id="200" name="Column200"/>
+    <tableColumn id="201" name="Column201"/>
+    <tableColumn id="202" name="Column202"/>
+    <tableColumn id="203" name="Column203"/>
+    <tableColumn id="204" name="Column204"/>
+    <tableColumn id="205" name="Column205"/>
+    <tableColumn id="206" name="Column206"/>
+    <tableColumn id="207" name="Column207"/>
+    <tableColumn id="208" name="Column208"/>
+    <tableColumn id="209" name="Column209"/>
+    <tableColumn id="210" name="Column210"/>
+    <tableColumn id="211" name="Column211"/>
+    <tableColumn id="212" name="Column212"/>
+    <tableColumn id="213" name="Column213"/>
+    <tableColumn id="214" name="Column214"/>
+    <tableColumn id="215" name="Column215"/>
+    <tableColumn id="216" name="Column216"/>
+    <tableColumn id="217" name="Column217"/>
+    <tableColumn id="218" name="Column218"/>
+    <tableColumn id="219" name="Column219"/>
+    <tableColumn id="220" name="Column220"/>
+    <tableColumn id="221" name="Column221"/>
+    <tableColumn id="222" name="Column222"/>
+    <tableColumn id="223" name="Column223"/>
+    <tableColumn id="224" name="Column224"/>
+    <tableColumn id="225" name="Column225"/>
+    <tableColumn id="226" name="Column226"/>
+    <tableColumn id="227" name="Column227"/>
+    <tableColumn id="228" name="Column228"/>
+    <tableColumn id="229" name="Column229"/>
+    <tableColumn id="230" name="Column230"/>
+    <tableColumn id="231" name="Column231"/>
+    <tableColumn id="232" name="Column232"/>
+    <tableColumn id="233" name="Column233"/>
+    <tableColumn id="234" name="Column234"/>
+    <tableColumn id="235" name="Column235"/>
+    <tableColumn id="236" name="Column236"/>
+    <tableColumn id="237" name="Column237"/>
+    <tableColumn id="238" name="Column238"/>
+    <tableColumn id="239" name="Column239"/>
+    <tableColumn id="240" name="Column240"/>
+    <tableColumn id="241" name="Column241"/>
+    <tableColumn id="242" name="Column242"/>
+    <tableColumn id="243" name="Column243"/>
+    <tableColumn id="244" name="Column244"/>
+    <tableColumn id="245" name="Column245"/>
+    <tableColumn id="246" name="Column246"/>
+    <tableColumn id="247" name="Column247"/>
+    <tableColumn id="248" name="Column248"/>
+    <tableColumn id="249" name="Column249"/>
+    <tableColumn id="250" name="Column250"/>
+    <tableColumn id="251" name="Column251"/>
+    <tableColumn id="252" name="Column252"/>
+    <tableColumn id="253" name="Column253"/>
+    <tableColumn id="254" name="Column254"/>
+    <tableColumn id="255" name="Column255"/>
+    <tableColumn id="256" name="Column256"/>
+    <tableColumn id="257" name="Column257"/>
+    <tableColumn id="258" name="Column258"/>
+    <tableColumn id="259" name="Column259"/>
+    <tableColumn id="260" name="Column260"/>
+    <tableColumn id="261" name="Column261"/>
+    <tableColumn id="262" name="Column262"/>
+    <tableColumn id="263" name="Column263"/>
+    <tableColumn id="264" name="Column264"/>
+    <tableColumn id="265" name="Column265"/>
+    <tableColumn id="266" name="Column266"/>
+    <tableColumn id="267" name="Column267"/>
+    <tableColumn id="268" name="Column268"/>
+    <tableColumn id="269" name="Column269"/>
+    <tableColumn id="270" name="Column270"/>
+    <tableColumn id="271" name="Column271"/>
+    <tableColumn id="272" name="Column272"/>
+    <tableColumn id="273" name="Column273"/>
+    <tableColumn id="274" name="Column274"/>
+    <tableColumn id="275" name="Column275"/>
+    <tableColumn id="276" name="Column276"/>
+    <tableColumn id="277" name="Column277"/>
+    <tableColumn id="278" name="Column278"/>
+    <tableColumn id="279" name="Column279"/>
+    <tableColumn id="280" name="Column280"/>
+    <tableColumn id="281" name="Column281"/>
+    <tableColumn id="282" name="Column282"/>
+    <tableColumn id="283" name="Column283"/>
+    <tableColumn id="284" name="Column284"/>
+    <tableColumn id="285" name="Column285"/>
+    <tableColumn id="286" name="Column286"/>
+    <tableColumn id="287" name="Column287"/>
+    <tableColumn id="288" name="Column288"/>
+    <tableColumn id="289" name="Column289"/>
+    <tableColumn id="290" name="Column290"/>
+    <tableColumn id="291" name="Column291"/>
+    <tableColumn id="292" name="Column292"/>
+    <tableColumn id="293" name="Column293"/>
+    <tableColumn id="294" name="Column294"/>
+    <tableColumn id="295" name="Column295"/>
+    <tableColumn id="296" name="Column296"/>
+    <tableColumn id="297" name="Column297"/>
+    <tableColumn id="298" name="Column298"/>
+    <tableColumn id="299" name="Column299"/>
+    <tableColumn id="300" name="Column300"/>
+    <tableColumn id="301" name="Column301"/>
+    <tableColumn id="302" name="Column302"/>
+    <tableColumn id="303" name="Column303"/>
+    <tableColumn id="304" name="Column304"/>
+    <tableColumn id="305" name="Column305"/>
+    <tableColumn id="306" name="Column306"/>
+    <tableColumn id="307" name="Column307"/>
+    <tableColumn id="308" name="Column308"/>
+    <tableColumn id="309" name="Column309"/>
+    <tableColumn id="310" name="Column310"/>
+    <tableColumn id="311" name="Column311"/>
+    <tableColumn id="312" name="Column312"/>
+    <tableColumn id="313" name="Column313"/>
+    <tableColumn id="314" name="Column314"/>
+    <tableColumn id="315" name="Column315"/>
+    <tableColumn id="316" name="Column316"/>
+    <tableColumn id="317" name="Column317"/>
+    <tableColumn id="318" name="Column318"/>
+    <tableColumn id="319" name="Column319"/>
+    <tableColumn id="320" name="Column320"/>
+    <tableColumn id="321" name="Column321"/>
+    <tableColumn id="322" name="Column322"/>
+    <tableColumn id="323" name="Column323"/>
+    <tableColumn id="324" name="Column324"/>
+    <tableColumn id="325" name="Column325"/>
+    <tableColumn id="326" name="Column326"/>
+    <tableColumn id="327" name="Column327"/>
+    <tableColumn id="328" name="Column328"/>
+    <tableColumn id="329" name="Column329"/>
+    <tableColumn id="330" name="Column330"/>
+    <tableColumn id="331" name="Column331"/>
+    <tableColumn id="332" name="Column332"/>
+    <tableColumn id="333" name="Column333"/>
+    <tableColumn id="334" name="Column334"/>
+    <tableColumn id="335" name="Column335"/>
+    <tableColumn id="336" name="Column336"/>
+    <tableColumn id="337" name="Column337"/>
+    <tableColumn id="338" name="Column338"/>
+    <tableColumn id="339" name="Column339"/>
+    <tableColumn id="340" name="Column340"/>
+    <tableColumn id="341" name="Column341"/>
+    <tableColumn id="342" name="Column342"/>
+    <tableColumn id="343" name="Column343"/>
+    <tableColumn id="344" name="Column344"/>
+    <tableColumn id="345" name="Column345"/>
+    <tableColumn id="346" name="Column346"/>
+    <tableColumn id="347" name="Column347"/>
+    <tableColumn id="348" name="Column348"/>
+    <tableColumn id="349" name="Column349"/>
+    <tableColumn id="350" name="Column350"/>
+    <tableColumn id="351" name="Column351"/>
+    <tableColumn id="352" name="Column352"/>
+    <tableColumn id="353" name="Column353"/>
+    <tableColumn id="354" name="Column354"/>
+    <tableColumn id="355" name="Column355"/>
+    <tableColumn id="356" name="Column356"/>
+    <tableColumn id="357" name="Column357"/>
+    <tableColumn id="358" name="Column358"/>
+    <tableColumn id="359" name="Column359"/>
+    <tableColumn id="360" name="Column360"/>
+    <tableColumn id="361" name="Column361"/>
+    <tableColumn id="362" name="Column362"/>
+    <tableColumn id="363" name="Column363"/>
+    <tableColumn id="364" name="Column364"/>
+    <tableColumn id="365" name="Column365"/>
+    <tableColumn id="366" name="Column366"/>
+    <tableColumn id="367" name="Column367"/>
+    <tableColumn id="368" name="Column368"/>
+    <tableColumn id="369" name="Column369"/>
+    <tableColumn id="370" name="Column370"/>
+    <tableColumn id="371" name="Column371"/>
+    <tableColumn id="372" name="Column372"/>
+    <tableColumn id="373" name="Column373"/>
+    <tableColumn id="374" name="Column374"/>
+    <tableColumn id="375" name="Column375"/>
+    <tableColumn id="376" name="Column376"/>
+    <tableColumn id="377" name="Column377"/>
+    <tableColumn id="378" name="Column378"/>
+    <tableColumn id="379" name="Column379"/>
+    <tableColumn id="380" name="Column380"/>
+    <tableColumn id="381" name="Column381"/>
+    <tableColumn id="382" name="Column382"/>
+    <tableColumn id="383" name="Column383"/>
+    <tableColumn id="384" name="Column384"/>
+    <tableColumn id="385" name="Column385"/>
+    <tableColumn id="386" name="Column386"/>
+    <tableColumn id="387" name="Column387"/>
+    <tableColumn id="388" name="Column388"/>
+    <tableColumn id="389" name="Column389"/>
+    <tableColumn id="390" name="Column390"/>
+    <tableColumn id="391" name="Column391"/>
+    <tableColumn id="392" name="Column392"/>
+    <tableColumn id="393" name="Column393"/>
+    <tableColumn id="394" name="Column394"/>
+    <tableColumn id="395" name="Column395"/>
+    <tableColumn id="396" name="Column396"/>
+    <tableColumn id="397" name="Column397"/>
+    <tableColumn id="398" name="Column398"/>
+    <tableColumn id="399" name="Column399"/>
+    <tableColumn id="400" name="Column400"/>
+    <tableColumn id="401" name="Column401"/>
+    <tableColumn id="402" name="Column402"/>
+    <tableColumn id="403" name="Column403"/>
+    <tableColumn id="404" name="Column404"/>
+    <tableColumn id="405" name="Column405"/>
+    <tableColumn id="406" name="Column406"/>
+    <tableColumn id="407" name="Column407"/>
+    <tableColumn id="408" name="Column408"/>
+    <tableColumn id="409" name="Column409"/>
+    <tableColumn id="410" name="Column410"/>
+    <tableColumn id="411" name="Column411"/>
+    <tableColumn id="412" name="Column412"/>
+    <tableColumn id="413" name="Column413"/>
+    <tableColumn id="414" name="Column414"/>
+    <tableColumn id="415" name="Column415"/>
+    <tableColumn id="416" name="Column416"/>
+    <tableColumn id="417" name="Column417"/>
+    <tableColumn id="418" name="Column418"/>
+    <tableColumn id="419" name="Column419"/>
+    <tableColumn id="420" name="Column420"/>
+    <tableColumn id="421" name="Column421"/>
+    <tableColumn id="422" name="Column422"/>
+    <tableColumn id="423" name="Column423"/>
+    <tableColumn id="424" name="Column424"/>
+    <tableColumn id="425" name="Column425"/>
+    <tableColumn id="426" name="Column426"/>
+    <tableColumn id="427" name="Column427"/>
+    <tableColumn id="428" name="Column428"/>
+    <tableColumn id="429" name="Column429"/>
+    <tableColumn id="430" name="Column430"/>
+    <tableColumn id="431" name="Column431"/>
+    <tableColumn id="432" name="Column432"/>
+    <tableColumn id="433" name="Column433"/>
+    <tableColumn id="434" name="Column434"/>
+    <tableColumn id="435" name="Column435"/>
+    <tableColumn id="436" name="Column436"/>
+    <tableColumn id="437" name="Column437"/>
+    <tableColumn id="438" name="Column438"/>
+    <tableColumn id="439" name="Column439"/>
+    <tableColumn id="440" name="Column440"/>
+    <tableColumn id="441" name="Column441"/>
+    <tableColumn id="442" name="Column442"/>
+    <tableColumn id="443" name="Column443"/>
+    <tableColumn id="444" name="Column444"/>
+    <tableColumn id="445" name="Column445"/>
+    <tableColumn id="446" name="Column446"/>
+    <tableColumn id="447" name="Column447"/>
+    <tableColumn id="448" name="Column448"/>
+    <tableColumn id="449" name="Column449"/>
+    <tableColumn id="450" name="Column450"/>
+    <tableColumn id="451" name="Column451"/>
+    <tableColumn id="452" name="Column452"/>
+    <tableColumn id="453" name="Column453"/>
+    <tableColumn id="454" name="Column454"/>
+    <tableColumn id="455" name="Column455"/>
+    <tableColumn id="456" name="Column456"/>
+    <tableColumn id="457" name="Column457"/>
+    <tableColumn id="458" name="Column458"/>
+    <tableColumn id="459" name="Column459"/>
+    <tableColumn id="460" name="Column460"/>
+    <tableColumn id="461" name="Column461"/>
+    <tableColumn id="462" name="Column462"/>
+    <tableColumn id="463" name="Column463"/>
+    <tableColumn id="464" name="Column464"/>
+    <tableColumn id="465" name="Column465"/>
+    <tableColumn id="466" name="Column466"/>
+    <tableColumn id="467" name="Column467"/>
+    <tableColumn id="468" name="Column468"/>
+    <tableColumn id="469" name="Column469"/>
+    <tableColumn id="470" name="Column470"/>
+    <tableColumn id="471" name="Column471"/>
+    <tableColumn id="472" name="Column472"/>
+    <tableColumn id="473" name="Column473"/>
+    <tableColumn id="474" name="Column474"/>
+    <tableColumn id="475" name="Column475"/>
+    <tableColumn id="476" name="Column476"/>
+    <tableColumn id="477" name="Column477"/>
+    <tableColumn id="478" name="Column478"/>
+    <tableColumn id="479" name="Column479"/>
+    <tableColumn id="480" name="Column480"/>
+    <tableColumn id="481" name="Column481"/>
+    <tableColumn id="482" name="Column482"/>
+    <tableColumn id="483" name="Column483"/>
+    <tableColumn id="484" name="Column484"/>
+    <tableColumn id="485" name="Column485"/>
+    <tableColumn id="486" name="Column486"/>
+    <tableColumn id="487" name="Column487"/>
+    <tableColumn id="488" name="Column488"/>
+    <tableColumn id="489" name="Column489"/>
+    <tableColumn id="490" name="Column490"/>
+    <tableColumn id="491" name="Column491"/>
+    <tableColumn id="492" name="Column492"/>
+    <tableColumn id="493" name="Column493"/>
+    <tableColumn id="494" name="Column494"/>
+    <tableColumn id="495" name="Column495"/>
+    <tableColumn id="496" name="Column496"/>
+    <tableColumn id="497" name="Column497"/>
+    <tableColumn id="498" name="Column498"/>
+    <tableColumn id="499" name="Column499"/>
+    <tableColumn id="500" name="Column500"/>
+    <tableColumn id="501" name="Column501"/>
+    <tableColumn id="502" name="Column502"/>
+    <tableColumn id="503" name="Column503"/>
+    <tableColumn id="504" name="Column504"/>
+    <tableColumn id="505" name="Column505"/>
+    <tableColumn id="506" name="Column506"/>
+    <tableColumn id="507" name="Column507"/>
+    <tableColumn id="508" name="Column508"/>
+    <tableColumn id="509" name="Column509"/>
+    <tableColumn id="510" name="Column510"/>
+    <tableColumn id="511" name="Column511"/>
+    <tableColumn id="512" name="Column512"/>
+    <tableColumn id="513" name="Column513"/>
+    <tableColumn id="514" name="Column514"/>
+    <tableColumn id="515" name="Column515"/>
+    <tableColumn id="516" name="Column516"/>
+    <tableColumn id="517" name="Column517"/>
+    <tableColumn id="518" name="Column518"/>
+    <tableColumn id="519" name="Column519"/>
+    <tableColumn id="520" name="Column520"/>
+    <tableColumn id="521" name="Column521"/>
+    <tableColumn id="522" name="Column522"/>
+    <tableColumn id="523" name="Column523"/>
+    <tableColumn id="524" name="Column524"/>
+    <tableColumn id="525" name="Column525"/>
+    <tableColumn id="526" name="Column526"/>
+    <tableColumn id="527" name="Column527"/>
+    <tableColumn id="528" name="Column528"/>
+    <tableColumn id="529" name="Column529"/>
+    <tableColumn id="530" name="Column530"/>
+    <tableColumn id="531" name="Column531"/>
+    <tableColumn id="532" name="Column532"/>
+    <tableColumn id="533" name="Column533"/>
+    <tableColumn id="534" name="Column534"/>
+    <tableColumn id="535" name="Column535"/>
+    <tableColumn id="536" name="Column536"/>
+    <tableColumn id="537" name="Column537"/>
+    <tableColumn id="538" name="Column538"/>
+    <tableColumn id="539" name="Column539"/>
+    <tableColumn id="540" name="Column540"/>
+    <tableColumn id="541" name="Column541"/>
+    <tableColumn id="542" name="Column542"/>
+    <tableColumn id="543" name="Column543"/>
+    <tableColumn id="544" name="Column544"/>
+    <tableColumn id="545" name="Column545"/>
+    <tableColumn id="546" name="Column546"/>
+    <tableColumn id="547" name="Column547"/>
+    <tableColumn id="548" name="Column548"/>
+    <tableColumn id="549" name="Column549"/>
+    <tableColumn id="550" name="Column550"/>
+    <tableColumn id="551" name="Column551"/>
+    <tableColumn id="552" name="Column552"/>
+    <tableColumn id="553" name="Column553"/>
+    <tableColumn id="554" name="Column554"/>
+    <tableColumn id="555" name="Column555"/>
+    <tableColumn id="556" name="Column556"/>
+    <tableColumn id="557" name="Column557"/>
+    <tableColumn id="558" name="Column558"/>
+    <tableColumn id="559" name="Column559"/>
+    <tableColumn id="560" name="Column560"/>
+    <tableColumn id="561" name="Column561"/>
+    <tableColumn id="562" name="Column562"/>
+    <tableColumn id="563" name="Column563"/>
+    <tableColumn id="564" name="Column564"/>
+    <tableColumn id="565" name="Column565"/>
+    <tableColumn id="566" name="Column566"/>
+    <tableColumn id="567" name="Column567"/>
+    <tableColumn id="568" name="Column568"/>
+    <tableColumn id="569" name="Column569"/>
+    <tableColumn id="570" name="Column570"/>
+    <tableColumn id="571" name="Column571"/>
+    <tableColumn id="572" name="Column572"/>
+    <tableColumn id="573" name="Column573"/>
+    <tableColumn id="574" name="Column574"/>
+    <tableColumn id="575" name="Column575"/>
+    <tableColumn id="576" name="Column576"/>
+    <tableColumn id="577" name="Column577"/>
+    <tableColumn id="578" name="Column578"/>
+    <tableColumn id="579" name="Column579"/>
+    <tableColumn id="580" name="Column580"/>
+    <tableColumn id="581" name="Column581"/>
+    <tableColumn id="582" name="Column582"/>
+    <tableColumn id="583" name="Column583"/>
+    <tableColumn id="584" name="Column584"/>
+    <tableColumn id="585" name="Column585"/>
+    <tableColumn id="586" name="Column586"/>
+    <tableColumn id="587" name="Column587"/>
+    <tableColumn id="588" name="Column588"/>
+    <tableColumn id="589" name="Column589"/>
+    <tableColumn id="590" name="Column590"/>
+    <tableColumn id="591" name="Column591"/>
+    <tableColumn id="592" name="Column592"/>
+    <tableColumn id="593" name="Column593"/>
+    <tableColumn id="594" name="Column594"/>
+    <tableColumn id="595" name="Column595"/>
+    <tableColumn id="596" name="Column596"/>
+    <tableColumn id="597" name="Column597"/>
+    <tableColumn id="598" name="Column598"/>
+    <tableColumn id="599" name="Column599"/>
+    <tableColumn id="600" name="Column600"/>
+    <tableColumn id="601" name="Column601"/>
+    <tableColumn id="602" name="Column602"/>
+    <tableColumn id="603" name="Column603"/>
+    <tableColumn id="604" name="Column604"/>
+    <tableColumn id="605" name="Column605"/>
+    <tableColumn id="606" name="Column606"/>
+    <tableColumn id="607" name="Column607"/>
+    <tableColumn id="608" name="Column608"/>
+    <tableColumn id="609" name="Column609"/>
+    <tableColumn id="610" name="Column610"/>
+    <tableColumn id="611" name="Column611"/>
+    <tableColumn id="612" name="Column612"/>
+    <tableColumn id="613" name="Column613"/>
+    <tableColumn id="614" name="Column614"/>
+    <tableColumn id="615" name="Column615"/>
+    <tableColumn id="616" name="Column616"/>
+    <tableColumn id="617" name="Column617"/>
+    <tableColumn id="618" name="Column618"/>
+    <tableColumn id="619" name="Column619"/>
+    <tableColumn id="620" name="Column620"/>
+    <tableColumn id="621" name="Column621"/>
+    <tableColumn id="622" name="Column622"/>
+    <tableColumn id="623" name="Column623"/>
+    <tableColumn id="624" name="Column624"/>
+    <tableColumn id="625" name="Column625"/>
+    <tableColumn id="626" name="Column626"/>
+    <tableColumn id="627" name="Column627"/>
+    <tableColumn id="628" name="Column628"/>
+    <tableColumn id="629" name="Column629"/>
+    <tableColumn id="630" name="Column630"/>
+    <tableColumn id="631" name="Column631"/>
+    <tableColumn id="632" name="Column632"/>
+    <tableColumn id="633" name="Column633"/>
+    <tableColumn id="634" name="Column634"/>
+    <tableColumn id="635" name="Column635"/>
+    <tableColumn id="636" name="Column636"/>
+    <tableColumn id="637" name="Column637"/>
+    <tableColumn id="638" name="Column638"/>
+    <tableColumn id="639" name="Column639"/>
+    <tableColumn id="640" name="Column640"/>
+    <tableColumn id="641" name="Column641"/>
+    <tableColumn id="642" name="Column642"/>
+    <tableColumn id="643" name="Column643"/>
+    <tableColumn id="644" name="Column644"/>
+    <tableColumn id="645" name="Column645"/>
+    <tableColumn id="646" name="Column646"/>
+    <tableColumn id="647" name="Column647"/>
+    <tableColumn id="648" name="Column648"/>
+    <tableColumn id="649" name="Column649"/>
+    <tableColumn id="650" name="Column650"/>
+    <tableColumn id="651" name="Column651"/>
+    <tableColumn id="652" name="Column652"/>
+    <tableColumn id="653" name="Column653"/>
+    <tableColumn id="654" name="Column654"/>
+    <tableColumn id="655" name="Column655"/>
+    <tableColumn id="656" name="Column656"/>
+    <tableColumn id="657" name="Column657"/>
+    <tableColumn id="658" name="Column658"/>
+    <tableColumn id="659" name="Column659"/>
+    <tableColumn id="660" name="Column660"/>
+    <tableColumn id="661" name="Column661"/>
+    <tableColumn id="662" name="Column662"/>
+    <tableColumn id="663" name="Column663"/>
+    <tableColumn id="664" name="Column664"/>
+    <tableColumn id="665" name="Column665"/>
+    <tableColumn id="666" name="Column666"/>
+    <tableColumn id="667" name="Column667"/>
+    <tableColumn id="668" name="Column668"/>
+    <tableColumn id="669" name="Column669"/>
+    <tableColumn id="670" name="Column670"/>
+    <tableColumn id="671" name="Column671"/>
+    <tableColumn id="672" name="Column672"/>
+    <tableColumn id="673" name="Column673"/>
+    <tableColumn id="674" name="Column674"/>
+    <tableColumn id="675" name="Column675"/>
+    <tableColumn id="676" name="Column676"/>
+    <tableColumn id="677" name="Column677"/>
+    <tableColumn id="678" name="Column678"/>
+    <tableColumn id="679" name="Column679"/>
+    <tableColumn id="680" name="Column680"/>
+    <tableColumn id="681" name="Column681"/>
+    <tableColumn id="682" name="Column682"/>
+    <tableColumn id="683" name="Column683"/>
+    <tableColumn id="684" name="Column684"/>
+    <tableColumn id="685" name="Column685"/>
+    <tableColumn id="686" name="Column686"/>
+    <tableColumn id="687" name="Column687"/>
+    <tableColumn id="688" name="Column688"/>
+    <tableColumn id="689" name="Column689"/>
+    <tableColumn id="690" name="Column690"/>
+    <tableColumn id="691" name="Column691"/>
+    <tableColumn id="692" name="Column692"/>
+    <tableColumn id="693" name="Column693"/>
+    <tableColumn id="694" name="Column694"/>
+    <tableColumn id="695" name="Column695"/>
+    <tableColumn id="696" name="Column696"/>
+    <tableColumn id="697" name="Column697"/>
+    <tableColumn id="698" name="Column698"/>
+    <tableColumn id="699" name="Column699"/>
+    <tableColumn id="700" name="Column700"/>
+    <tableColumn id="701" name="Column701"/>
+    <tableColumn id="702" name="Column702"/>
+    <tableColumn id="703" name="Column703"/>
+    <tableColumn id="704" name="Column704"/>
+    <tableColumn id="705" name="Column705"/>
+    <tableColumn id="706" name="Column706"/>
+    <tableColumn id="707" name="Column707"/>
+    <tableColumn id="708" name="Column708"/>
+    <tableColumn id="709" name="Column709"/>
+    <tableColumn id="710" name="Column710"/>
+    <tableColumn id="711" name="Column711"/>
+    <tableColumn id="712" name="Column712"/>
+    <tableColumn id="713" name="Column713"/>
+    <tableColumn id="714" name="Column714"/>
+    <tableColumn id="715" name="Column715"/>
+    <tableColumn id="716" name="Column716"/>
+    <tableColumn id="717" name="Column717"/>
+    <tableColumn id="718" name="Column718"/>
+    <tableColumn id="719" name="Column719"/>
+    <tableColumn id="720" name="Column720"/>
+    <tableColumn id="721" name="Column721"/>
+    <tableColumn id="722" name="Column722"/>
+    <tableColumn id="723" name="Column723"/>
+    <tableColumn id="724" name="Column724"/>
+    <tableColumn id="725" name="Column725"/>
+    <tableColumn id="726" name="Column726"/>
+    <tableColumn id="727" name="Column727"/>
+    <tableColumn id="728" name="Column728"/>
+    <tableColumn id="729" name="Column729"/>
+    <tableColumn id="730" name="Column730"/>
+    <tableColumn id="731" name="Column731"/>
+    <tableColumn id="732" name="Column732"/>
+    <tableColumn id="733" name="Column733"/>
+    <tableColumn id="734" name="Column734"/>
+    <tableColumn id="735" name="Column735"/>
+    <tableColumn id="736" name="Column736"/>
+    <tableColumn id="737" name="Column737"/>
+    <tableColumn id="738" name="Column738"/>
+    <tableColumn id="739" name="Column739"/>
+    <tableColumn id="740" name="Column740"/>
+    <tableColumn id="741" name="Column741"/>
+    <tableColumn id="742" name="Column742"/>
+    <tableColumn id="743" name="Column743"/>
+    <tableColumn id="744" name="Column744"/>
+    <tableColumn id="745" name="Column745"/>
+    <tableColumn id="746" name="Column746"/>
+    <tableColumn id="747" name="Column747"/>
+    <tableColumn id="748" name="Column748"/>
+    <tableColumn id="749" name="Column749"/>
+    <tableColumn id="750" name="Column750"/>
+    <tableColumn id="751" name="Column751"/>
+    <tableColumn id="752" name="Column752"/>
+    <tableColumn id="753" name="Column753"/>
+    <tableColumn id="754" name="Column754"/>
+    <tableColumn id="755" name="Column755"/>
+    <tableColumn id="756" name="Column756"/>
+    <tableColumn id="757" name="Column757"/>
+    <tableColumn id="758" name="Column758"/>
+    <tableColumn id="759" name="Column759"/>
+    <tableColumn id="760" name="Column760"/>
+    <tableColumn id="761" name="Column761"/>
+    <tableColumn id="762" name="Column762"/>
+    <tableColumn id="763" name="Column763"/>
+    <tableColumn id="764" name="Column764"/>
+    <tableColumn id="765" name="Column765"/>
+    <tableColumn id="766" name="Column766"/>
+    <tableColumn id="767" name="Column767"/>
+    <tableColumn id="768" name="Column768"/>
+    <tableColumn id="769" name="Column769"/>
+    <tableColumn id="770" name="Column770"/>
+    <tableColumn id="771" name="Column771"/>
+    <tableColumn id="772" name="Column772"/>
+    <tableColumn id="773" name="Column773"/>
+    <tableColumn id="774" name="Column774"/>
+    <tableColumn id="775" name="Column775"/>
+    <tableColumn id="776" name="Column776"/>
+    <tableColumn id="777" name="Column777"/>
+    <tableColumn id="778" name="Column778"/>
+    <tableColumn id="779" name="Column779"/>
+    <tableColumn id="780" name="Column780"/>
+    <tableColumn id="781" name="Column781"/>
+    <tableColumn id="782" name="Column782"/>
+    <tableColumn id="783" name="Column783"/>
+    <tableColumn id="784" name="Column784"/>
+    <tableColumn id="785" name="Column785"/>
+    <tableColumn id="786" name="Column786"/>
+    <tableColumn id="787" name="Column787"/>
+    <tableColumn id="788" name="Column788"/>
+    <tableColumn id="789" name="Column789"/>
+    <tableColumn id="790" name="Column790"/>
+    <tableColumn id="791" name="Column791"/>
+    <tableColumn id="792" name="Column792"/>
+    <tableColumn id="793" name="Column793"/>
+    <tableColumn id="794" name="Column794"/>
+    <tableColumn id="795" name="Column795"/>
+    <tableColumn id="796" name="Column796"/>
+    <tableColumn id="797" name="Column797"/>
+    <tableColumn id="798" name="Column798"/>
+    <tableColumn id="799" name="Column799"/>
+    <tableColumn id="800" name="Column800"/>
+    <tableColumn id="801" name="Column801"/>
+    <tableColumn id="802" name="Column802"/>
+    <tableColumn id="803" name="Column803"/>
+    <tableColumn id="804" name="Column804"/>
+    <tableColumn id="805" name="Column805"/>
+    <tableColumn id="806" name="Column806"/>
+    <tableColumn id="807" name="Column807"/>
+    <tableColumn id="808" name="Column808"/>
+    <tableColumn id="809" name="Column809"/>
+    <tableColumn id="810" name="Column810"/>
+    <tableColumn id="811" name="Column811"/>
+    <tableColumn id="812" name="Column812"/>
+    <tableColumn id="813" name="Column813"/>
+    <tableColumn id="814" name="Column814"/>
+    <tableColumn id="815" name="Column815"/>
+    <tableColumn id="816" name="Column816"/>
+    <tableColumn id="817" name="Column817"/>
+    <tableColumn id="818" name="Column818"/>
+    <tableColumn id="819" name="Column819"/>
+    <tableColumn id="820" name="Column820"/>
+    <tableColumn id="821" name="Column821"/>
+    <tableColumn id="822" name="Column822"/>
+    <tableColumn id="823" name="Column823"/>
+    <tableColumn id="824" name="Column824"/>
+    <tableColumn id="825" name="Column825"/>
+    <tableColumn id="826" name="Column826"/>
+    <tableColumn id="827" name="Column827"/>
+    <tableColumn id="828" name="Column828"/>
+    <tableColumn id="829" name="Column829"/>
+    <tableColumn id="830" name="Column830"/>
+    <tableColumn id="831" name="Column831"/>
+    <tableColumn id="832" name="Column832"/>
+    <tableColumn id="833" name="Column833"/>
+    <tableColumn id="834" name="Column834"/>
+    <tableColumn id="835" name="Column835"/>
+    <tableColumn id="836" name="Column836"/>
+    <tableColumn id="837" name="Column837"/>
+    <tableColumn id="838" name="Column838"/>
+    <tableColumn id="839" name="Column839"/>
+    <tableColumn id="840" name="Column840"/>
+    <tableColumn id="841" name="Column841"/>
+    <tableColumn id="842" name="Column842"/>
+    <tableColumn id="843" name="Column843"/>
+    <tableColumn id="844" name="Column844"/>
+    <tableColumn id="845" name="Column845"/>
+    <tableColumn id="846" name="Column846"/>
+    <tableColumn id="847" name="Column847"/>
+    <tableColumn id="848" name="Column848"/>
+    <tableColumn id="849" name="Column849"/>
+    <tableColumn id="850" name="Column850"/>
+    <tableColumn id="851" name="Column851"/>
+    <tableColumn id="852" name="Column852"/>
+    <tableColumn id="853" name="Column853"/>
+    <tableColumn id="854" name="Column854"/>
+    <tableColumn id="855" name="Column855"/>
+    <tableColumn id="856" name="Column856"/>
+    <tableColumn id="857" name="Column857"/>
+    <tableColumn id="858" name="Column858"/>
+    <tableColumn id="859" name="Column859"/>
+    <tableColumn id="860" name="Column860"/>
+    <tableColumn id="861" name="Column861"/>
+    <tableColumn id="862" name="Column862"/>
+    <tableColumn id="863" name="Column863"/>
+    <tableColumn id="864" name="Column864"/>
+    <tableColumn id="865" name="Column865"/>
+    <tableColumn id="866" name="Column866"/>
+    <tableColumn id="867" name="Column867"/>
+    <tableColumn id="868" name="Column868"/>
+    <tableColumn id="869" name="Column869"/>
+    <tableColumn id="870" name="Column870"/>
+    <tableColumn id="871" name="Column871"/>
+    <tableColumn id="872" name="Column872"/>
+    <tableColumn id="873" name="Column873"/>
+    <tableColumn id="874" name="Column874"/>
+    <tableColumn id="875" name="Column875"/>
+    <tableColumn id="876" name="Column876"/>
+    <tableColumn id="877" name="Column877"/>
+    <tableColumn id="878" name="Column878"/>
+    <tableColumn id="879" name="Column879"/>
+    <tableColumn id="880" name="Column880"/>
+    <tableColumn id="881" name="Column881"/>
+    <tableColumn id="882" name="Column882"/>
+    <tableColumn id="883" name="Column883"/>
+    <tableColumn id="884" name="Column884"/>
+    <tableColumn id="885" name="Column885"/>
+    <tableColumn id="886" name="Column886"/>
+    <tableColumn id="887" name="Column887"/>
+    <tableColumn id="888" name="Column888"/>
+    <tableColumn id="889" name="Column889"/>
+    <tableColumn id="890" name="Column890"/>
+    <tableColumn id="891" name="Column891"/>
+    <tableColumn id="892" name="Column892"/>
+    <tableColumn id="893" name="Column893"/>
+    <tableColumn id="894" name="Column894"/>
+    <tableColumn id="895" name="Column895"/>
+    <tableColumn id="896" name="Column896"/>
+    <tableColumn id="897" name="Column897"/>
+    <tableColumn id="898" name="Column898"/>
+    <tableColumn id="899" name="Column899"/>
+    <tableColumn id="900" name="Column900"/>
+    <tableColumn id="901" name="Column901"/>
+    <tableColumn id="902" name="Column902"/>
+    <tableColumn id="903" name="Column903"/>
+    <tableColumn id="904" name="Column904"/>
+    <tableColumn id="905" name="Column905"/>
+    <tableColumn id="906" name="Column906"/>
+    <tableColumn id="907" name="Column907"/>
+    <tableColumn id="908" name="Column908"/>
+    <tableColumn id="909" name="Column909"/>
+    <tableColumn id="910" name="Column910"/>
+    <tableColumn id="911" name="Column911"/>
+    <tableColumn id="912" name="Column912"/>
+    <tableColumn id="913" name="Column913"/>
+    <tableColumn id="914" name="Column914"/>
+    <tableColumn id="915" name="Column915"/>
+    <tableColumn id="916" name="Column916"/>
+    <tableColumn id="917" name="Column917"/>
+    <tableColumn id="918" name="Column918"/>
+    <tableColumn id="919" name="Column919"/>
+    <tableColumn id="920" name="Column920"/>
+    <tableColumn id="921" name="Column921"/>
+    <tableColumn id="922" name="Column922"/>
+    <tableColumn id="923" name="Column923"/>
+    <tableColumn id="924" name="Column924"/>
+    <tableColumn id="925" name="Column925"/>
+    <tableColumn id="926" name="Column926"/>
+    <tableColumn id="927" name="Column927"/>
+    <tableColumn id="928" name="Column928"/>
+    <tableColumn id="929" name="Column929"/>
+    <tableColumn id="930" name="Column930"/>
+    <tableColumn id="931" name="Column931"/>
+    <tableColumn id="932" name="Column932"/>
+    <tableColumn id="933" name="Column933"/>
+    <tableColumn id="934" name="Column934"/>
+    <tableColumn id="935" name="Column935"/>
+    <tableColumn id="936" name="Column936"/>
+    <tableColumn id="937" name="Column937"/>
+    <tableColumn id="938" name="Column938"/>
+    <tableColumn id="939" name="Column939"/>
+    <tableColumn id="940" name="Column940"/>
+    <tableColumn id="941" name="Column941"/>
+    <tableColumn id="942" name="Column942"/>
+    <tableColumn id="943" name="Column943"/>
+    <tableColumn id="944" name="Column944"/>
+    <tableColumn id="945" name="Column945"/>
+    <tableColumn id="946" name="Column946"/>
+    <tableColumn id="947" name="Column947"/>
+    <tableColumn id="948" name="Column948"/>
+    <tableColumn id="949" name="Column949"/>
+    <tableColumn id="950" name="Column950"/>
+    <tableColumn id="951" name="Column951"/>
+    <tableColumn id="952" name="Column952"/>
+    <tableColumn id="953" name="Column953"/>
+    <tableColumn id="954" name="Column954"/>
+    <tableColumn id="955" name="Column955"/>
+    <tableColumn id="956" name="Column956"/>
+    <tableColumn id="957" name="Column957"/>
+    <tableColumn id="958" name="Column958"/>
+    <tableColumn id="959" name="Column959"/>
+    <tableColumn id="960" name="Column960"/>
+    <tableColumn id="961" name="Column961"/>
+    <tableColumn id="962" name="Column962"/>
+    <tableColumn id="963" name="Column963"/>
+    <tableColumn id="964" name="Column964"/>
+    <tableColumn id="965" name="Column965"/>
+    <tableColumn id="966" name="Column966"/>
+    <tableColumn id="967" name="Column967"/>
+    <tableColumn id="968" name="Column968"/>
+    <tableColumn id="969" name="Column969"/>
+    <tableColumn id="970" name="Column970"/>
+    <tableColumn id="971" name="Column971"/>
+    <tableColumn id="972" name="Column972"/>
+    <tableColumn id="973" name="Column973"/>
+    <tableColumn id="974" name="Column974"/>
+    <tableColumn id="975" name="Column975"/>
+    <tableColumn id="976" name="Column976"/>
+    <tableColumn id="977" name="Column977"/>
+    <tableColumn id="978" name="Column978"/>
+    <tableColumn id="979" name="Column979"/>
+    <tableColumn id="980" name="Column980"/>
+    <tableColumn id="981" name="Column981"/>
+    <tableColumn id="982" name="Column982"/>
+    <tableColumn id="983" name="Column983"/>
+    <tableColumn id="984" name="Column984"/>
+    <tableColumn id="985" name="Column985"/>
+    <tableColumn id="986" name="Column986"/>
+    <tableColumn id="987" name="Column987"/>
+    <tableColumn id="988" name="Column988"/>
+    <tableColumn id="989" name="Column989"/>
+    <tableColumn id="990" name="Column990"/>
+    <tableColumn id="991" name="Column991"/>
+    <tableColumn id="992" name="Column992"/>
+    <tableColumn id="993" name="Column993"/>
+    <tableColumn id="994" name="Column994"/>
+    <tableColumn id="995" name="Column995"/>
+    <tableColumn id="996" name="Column996"/>
+    <tableColumn id="997" name="Column997"/>
+    <tableColumn id="998" name="Column998"/>
+    <tableColumn id="999" name="Column999"/>
+    <tableColumn id="1000" name="Column1000"/>
+    <tableColumn id="1001" name="Column1001"/>
+    <tableColumn id="1002" name="Column1002"/>
+    <tableColumn id="1003" name="Column1003"/>
+    <tableColumn id="1004" name="Column1004"/>
+    <tableColumn id="1005" name="Column1005"/>
+    <tableColumn id="1006" name="Column1006"/>
+    <tableColumn id="1007" name="Column1007"/>
+    <tableColumn id="1008" name="Column1008"/>
+    <tableColumn id="1009" name="Column1009"/>
+    <tableColumn id="1010" name="Column1010"/>
+    <tableColumn id="1011" name="Column1011"/>
+    <tableColumn id="1012" name="Column1012"/>
+    <tableColumn id="1013" name="Column1013"/>
+    <tableColumn id="1014" name="Column1014"/>
+    <tableColumn id="1015" name="Column1015"/>
+    <tableColumn id="1016" name="Column1016"/>
+    <tableColumn id="1017" name="Column1017"/>
+    <tableColumn id="1018" name="Column1018"/>
+    <tableColumn id="1019" name="Column1019"/>
+    <tableColumn id="1020" name="Column1020"/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -892,13 +2047,13 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
@@ -960,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,10 +2164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1020,61 +2175,885 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="n">
+    <row r="1" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="24" t="str">
+        <f aca="false" t="array" ref="D1:D1">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D1))),"")</f>
+        <v>Test 1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="24" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="D2" s="24" t="str">
+        <f aca="false" t="array" ref="D2:D2">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D2))),"")</f>
+        <v>Test 2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f aca="false" t="array" ref="D3:D3">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D3))),"")</f>
+        <v>Test 3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f aca="false" t="array" ref="D4:D4">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D4))),"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f aca="false" t="array" ref="D5:D5">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D5))),"")</f>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="D6" s="24" t="str">
+        <f aca="false" t="array" ref="D6:D6">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D6))),"")</f>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="D7" s="24" t="str">
+        <f aca="false" t="array" ref="D7:D7">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D7))),"")</f>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f aca="false" t="array" ref="D8:D8">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D8))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="24" t="str">
+        <f aca="false" t="array" ref="D9:D9">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D9))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="24" t="str">
+        <f aca="false" t="array" ref="D10:D10">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D10))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="24" t="str">
+        <f aca="false" t="array" ref="D11:D11">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D11))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="24" t="str">
+        <f aca="false" t="array" ref="D12:D12">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D12))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="24" t="str">
+        <f aca="false" t="array" ref="D13:D13">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D13))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="24" t="str">
+        <f aca="false" t="array" ref="D14:D14">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D14))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="24" t="str">
+        <f aca="false" t="array" ref="D15:D15">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D15))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="24" t="str">
+        <f aca="false" t="array" ref="D16:D16">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D16))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="24" t="str">
+        <f aca="false" t="array" ref="D17:D17">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D17))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="24" t="str">
+        <f aca="false" t="array" ref="D18:D18">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D18))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="24" t="str">
+        <f aca="false" t="array" ref="D19:D19">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D19))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="24" t="str">
+        <f aca="false" t="array" ref="D20:D20">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D20))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="24" t="str">
+        <f aca="false" t="array" ref="D21:D21">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D21))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="24" t="str">
+        <f aca="false" t="array" ref="D22:D22">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D22))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="24" t="str">
+        <f aca="false" t="array" ref="D23:D23">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D23))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="24" t="str">
+        <f aca="false" t="array" ref="D24:D24">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D24))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="24" t="str">
+        <f aca="false" t="array" ref="D25:D25">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D25))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="24" t="str">
+        <f aca="false" t="array" ref="D26:D26">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D26))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="24" t="str">
+        <f aca="false" t="array" ref="D27:D27">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D27))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="24" t="str">
+        <f aca="false" t="array" ref="D28:D28">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D28))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="24" t="str">
+        <f aca="false" t="array" ref="D29:D29">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D29))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="24" t="str">
+        <f aca="false" t="array" ref="D30:D30">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D30))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="24" t="str">
+        <f aca="false" t="array" ref="D31:D31">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D31))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="24" t="str">
+        <f aca="false" t="array" ref="D32:D32">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D32))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="24" t="str">
+        <f aca="false" t="array" ref="D33:D33">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D33))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="24" t="str">
+        <f aca="false" t="array" ref="D34:D34">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D34))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="24" t="str">
+        <f aca="false" t="array" ref="D35:D35">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D35))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="24" t="str">
+        <f aca="false" t="array" ref="D36:D36">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D36))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="24" t="str">
+        <f aca="false" t="array" ref="D37:D37">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D37))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="24" t="str">
+        <f aca="false" t="array" ref="D38:D38">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D38))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="24" t="str">
+        <f aca="false" t="array" ref="D39:D39">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D39))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="24" t="str">
+        <f aca="false" t="array" ref="D40:D40">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D40))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="24" t="str">
+        <f aca="false" t="array" ref="D41:D41">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D41))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="24" t="str">
+        <f aca="false" t="array" ref="D42:D42">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D42))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="24" t="str">
+        <f aca="false" t="array" ref="D43:D43">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D43))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="24" t="str">
+        <f aca="false" t="array" ref="D44:D44">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D44))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="24" t="str">
+        <f aca="false" t="array" ref="D45:D45">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D45))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="24" t="str">
+        <f aca="false" t="array" ref="D46:D46">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D46))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="24" t="str">
+        <f aca="false" t="array" ref="D47:D47">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D47))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="24" t="str">
+        <f aca="false" t="array" ref="D48:D48">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D48))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="24" t="str">
+        <f aca="false" t="array" ref="D49:D49">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D49))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="24" t="str">
+        <f aca="false" t="array" ref="D50:D50">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D50))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="24" t="str">
+        <f aca="false" t="array" ref="D51:D51">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D51))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="24" t="str">
+        <f aca="false" t="array" ref="D52:D52">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D52))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="24" t="str">
+        <f aca="false" t="array" ref="D53:D53">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D53))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="24" t="str">
+        <f aca="false" t="array" ref="D54:D54">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D54))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="24" t="str">
+        <f aca="false" t="array" ref="D55:D55">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D55))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="24" t="str">
+        <f aca="false" t="array" ref="D56:D56">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D56))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="24" t="str">
+        <f aca="false" t="array" ref="D57:D57">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D57))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="24" t="str">
+        <f aca="false" t="array" ref="D58:D58">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D58))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="24" t="str">
+        <f aca="false" t="array" ref="D59:D59">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D59))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="24" t="str">
+        <f aca="false" t="array" ref="D60:D60">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D60))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="24" t="str">
+        <f aca="false" t="array" ref="D61:D61">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D61))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="24" t="str">
+        <f aca="false" t="array" ref="D62:D62">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D62))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="24" t="str">
+        <f aca="false" t="array" ref="D63:D63">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D63))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="24" t="str">
+        <f aca="false" t="array" ref="D64:D64">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D64))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="24" t="str">
+        <f aca="false" t="array" ref="D65:D65">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D65))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="24" t="str">
+        <f aca="false" t="array" ref="D66:D66">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D66))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="24" t="str">
+        <f aca="false" t="array" ref="D67:D67">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D67))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="24" t="str">
+        <f aca="false" t="array" ref="D68:D68">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D68))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="24" t="str">
+        <f aca="false" t="array" ref="D69:D69">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D69))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="24" t="str">
+        <f aca="false" t="array" ref="D70:D70">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D70))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="24" t="str">
+        <f aca="false" t="array" ref="D71:D71">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D71))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="24" t="str">
+        <f aca="false" t="array" ref="D72:D72">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D72))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="24" t="str">
+        <f aca="false" t="array" ref="D73:D73">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D73))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="24" t="str">
+        <f aca="false" t="array" ref="D74:D74">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D74))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="24" t="str">
+        <f aca="false" t="array" ref="D75:D75">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D75))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="24" t="str">
+        <f aca="false" t="array" ref="D76:D76">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D76))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="24" t="str">
+        <f aca="false" t="array" ref="D77:D77">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D77))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="24" t="str">
+        <f aca="false" t="array" ref="D78:D78">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D78))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="24" t="str">
+        <f aca="false" t="array" ref="D79:D79">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D79))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="24" t="str">
+        <f aca="false" t="array" ref="D80:D80">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D80))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="24" t="str">
+        <f aca="false" t="array" ref="D81:D81">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D81))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="24" t="str">
+        <f aca="false" t="array" ref="D82:D82">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D82))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="24" t="str">
+        <f aca="false" t="array" ref="D83:D83">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D83))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="24" t="str">
+        <f aca="false" t="array" ref="D84:D84">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D84))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="24" t="str">
+        <f aca="false" t="array" ref="D85:D85">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D85))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="24" t="str">
+        <f aca="false" t="array" ref="D86:D86">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D86))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="24" t="str">
+        <f aca="false" t="array" ref="D87:D87">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D87))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="24" t="str">
+        <f aca="false" t="array" ref="D88:D88">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D88))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="24" t="str">
+        <f aca="false" t="array" ref="D89:D89">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D89))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="24" t="str">
+        <f aca="false" t="array" ref="D90:D90">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D90))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="24" t="str">
+        <f aca="false" t="array" ref="D91:D91">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D91))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="24" t="str">
+        <f aca="false" t="array" ref="D92:D92">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D92))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="24" t="str">
+        <f aca="false" t="array" ref="D93:D93">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D93))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="24" t="str">
+        <f aca="false" t="array" ref="D94:D94">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D94))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="24" t="str">
+        <f aca="false" t="array" ref="D95:D95">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D95))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="24" t="str">
+        <f aca="false" t="array" ref="D96:D96">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D96))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="24" t="str">
+        <f aca="false" t="array" ref="D97:D97">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D97))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="24" t="str">
+        <f aca="false" t="array" ref="D98:D98">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D98))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="24" t="str">
+        <f aca="false" t="array" ref="D99:D99">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D99))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="24" t="str">
+        <f aca="false" t="array" ref="D100:D100">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D100))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="24" t="str">
+        <f aca="false" t="array" ref="D101:D101">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D101))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="24" t="str">
+        <f aca="false" t="array" ref="D102:D102">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D102))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="24" t="str">
+        <f aca="false" t="array" ref="D103:D103">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D103))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="24" t="str">
+        <f aca="false" t="array" ref="D104:D104">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D104))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="24" t="str">
+        <f aca="false" t="array" ref="D105:D105">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D105))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="24" t="str">
+        <f aca="false" t="array" ref="D106:D106">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D106))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="24" t="str">
+        <f aca="false" t="array" ref="D107:D107">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D107))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="24" t="str">
+        <f aca="false" t="array" ref="D108:D108">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D108))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="24" t="str">
+        <f aca="false" t="array" ref="D109:D109">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D109))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="24" t="str">
+        <f aca="false" t="array" ref="D110:D110">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D110))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="24" t="str">
+        <f aca="false" t="array" ref="D111:D111">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D111))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="24" t="str">
+        <f aca="false" t="array" ref="D112:D112">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D112))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="24" t="str">
+        <f aca="false" t="array" ref="D113:D113">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D113))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="24" t="str">
+        <f aca="false" t="array" ref="D114:D114">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D114))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="24" t="str">
+        <f aca="false" t="array" ref="D115:D115">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D115))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="24" t="str">
+        <f aca="false" t="array" ref="D116:D116">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D116))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="24" t="str">
+        <f aca="false" t="array" ref="D117:D117">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D117))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="24" t="str">
+        <f aca="false" t="array" ref="D118:D118">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D118))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="24" t="str">
+        <f aca="false" t="array" ref="D119:D119">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D119))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="24" t="str">
+        <f aca="false" t="array" ref="D120:D120">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D120))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="24" t="str">
+        <f aca="false" t="array" ref="D121:D121">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D121))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="24" t="str">
+        <f aca="false" t="array" ref="D122:D122">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D122))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="24" t="str">
+        <f aca="false" t="array" ref="D123:D123">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D123))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="24" t="str">
+        <f aca="false" t="array" ref="D124:D124">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D124))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="24" t="str">
+        <f aca="false" t="array" ref="D125:D125">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D125))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="24" t="str">
+        <f aca="false" t="array" ref="D126:D126">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D126))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="24" t="str">
+        <f aca="false" t="array" ref="D127:D127">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D127))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="24" t="str">
+        <f aca="false" t="array" ref="D128:D128">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D128))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="24" t="str">
+        <f aca="false" t="array" ref="D129:D129">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D129))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="24" t="str">
+        <f aca="false" t="array" ref="D130:D130">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D130))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="24" t="str">
+        <f aca="false" t="array" ref="D131:D131">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D131))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="24" t="str">
+        <f aca="false" t="array" ref="D132:D132">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D132))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="24" t="str">
+        <f aca="false" t="array" ref="D133:D133">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D133))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="24" t="str">
+        <f aca="false" t="array" ref="D134:D134">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D134))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="24" t="str">
+        <f aca="false" t="array" ref="D135:D135">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D135))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="24" t="str">
+        <f aca="false" t="array" ref="D136:D136">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D136))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="24" t="str">
+        <f aca="false" t="array" ref="D137:D137">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D137))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="24" t="str">
+        <f aca="false" t="array" ref="D138:D138">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D138))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="24" t="str">
+        <f aca="false" t="array" ref="D139:D139">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D139))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="24" t="str">
+        <f aca="false" t="array" ref="D140:D140">IFERROR(INDEX(AttrNames, ,SMALL(IF(ISTEXT(AttrNames),COLUMN(AttrNames)+1-COLUMN(Attrition!$E$5),""),ROW(D140))),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1085,10 +3064,308 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="str">
+        <f aca="false">IF(B7,"Probability of attrition/period","ignored")</f>
+        <v>ignored</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="str">
+        <f aca="false">IF(B7,"ignored","Attrition rate")</f>
+        <v>Attrition rate</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A10:C10">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Attrition!$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(Attrition!$B$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Attrition!$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(Attrition!$B$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Attrition!$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(Attrition!$B$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Attrition!$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(Attrition!$B$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6 E6 H6 K6" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 E7 H7 K7" type="list">
+      <formula1>Misc!$A$1:$A$2</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8 E8 H8 K8" type="decimal">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1105,18 +3382,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>4</v>
@@ -1124,23 +3401,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>2</v>
@@ -1148,37 +3425,37 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C10),C10/E10,0)</f>
         <v>0.75</v>
       </c>
@@ -1189,39 +3466,39 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C11),C11/E11,0)</f>
         <v>0.25</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="13" t="n">
         <f aca="false">E10</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>2</v>
@@ -1229,37 +3506,37 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C18),C18/E18,0)</f>
         <v>0.6</v>
       </c>
@@ -1270,39 +3547,39 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C19),C19/E19,0)</f>
         <v>0.4</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="13" t="n">
         <f aca="false">E18</f>
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>3</v>
@@ -1310,37 +3587,37 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C26),C26/E26,0)</f>
         <v>0.1</v>
       </c>
@@ -1351,55 +3628,55 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C27),C27/E27,0)</f>
         <v>0.3</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="13" t="n">
         <f aca="false">E26</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C28),C28/E28,0)</f>
         <v>0.6</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="13" t="n">
         <f aca="false">E27</f>
         <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>2</v>
@@ -1407,37 +3684,37 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C35),C35/E35,0)</f>
         <v>0.8</v>
       </c>
@@ -1448,16 +3725,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="12" t="n">
         <f aca="false">IF(ISNUMBER(C36),C36/E36,0)</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="13" t="n">
         <f aca="false">E35</f>
         <v>100</v>
       </c>
@@ -1487,7 +3764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1499,23 +3776,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>6</v>
@@ -1523,267 +3800,259 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B6" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B12" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="12" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B15" s="16" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>42</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B21" s="16" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B24" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="12" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B27" s="16" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="12" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" s="16" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="12" t="n">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>24</v>
+      <c r="B39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="B40" s="16" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1791,8 +4060,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3 B7 B13 B19 B25 B31 B37" type="whole">
+  <dataValidations count="5">
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B14:C14 B20:C20 B26:C26 B32:C32 B38:C39" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1800,12 +4073,12 @@
       <formula1>Misc!$A$1:$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5 B8:C8 B14:C14 B20:C20 B26:C26 B32:C32 B38:C39" type="none">
-      <formula1>0</formula1>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B15 B21 B27 B33 B40" type="whole">
+      <formula1>-1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9 B15 B21 B27 B33 B40" type="whole">
-      <formula1>-1</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7 B13 B19 B25 B31 B37" type="list">
+      <formula1>AttrNameList</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1816,10 +4089,11 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1836,20 +4110,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>3</v>
@@ -1857,387 +4131,387 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B8" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B9" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="B10" s="18" t="n">
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B11" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="B13" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="B14" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="14" t="n">
+        <v>72</v>
+      </c>
+      <c r="B16" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="B17" s="21" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="21" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B23" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B24" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="B25" s="18" t="n">
         <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B26" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="B27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="B28" s="18" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="B29" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="B30" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="14" t="n">
+        <v>72</v>
+      </c>
+      <c r="B31" s="18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="B32" s="21" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="n">
+      <c r="B33" s="21" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B38" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B40" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
+        <v>78</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="B42" s="18" t="n">
         <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="B44" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="B45" s="18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="B46" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="B47" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="14" t="n">
+        <v>72</v>
+      </c>
+      <c r="B48" s="18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="B49" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2301,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2309,32 +4583,32 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>4</v>
@@ -2342,25 +4616,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +4667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2410,25 +4684,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>3</v>
@@ -2436,312 +4710,312 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="10" t="str">
         <f aca="false">IF(B10,"Min recruitment","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="str">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="str">
         <f aca="false">IF(G10,"Min recruitment","ignored")</f>
         <v>Min recruitment</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="10" t="str">
         <f aca="false">IF(L10,"Min recruitment","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="str">
+      <c r="A9" s="10" t="str">
         <f aca="false">IF(B10,"Max recruitment",IF(B11,"ignored","Recruitment"))</f>
         <v>ignored</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="str">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="str">
         <f aca="false">IF(G10,"Max recruitment",IF(G11,"ignored","Recruitment"))</f>
         <v>Max recruitment</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="10" t="str">
         <f aca="false">IF(L10,"Max recruitment",IF(L11,"ignored","Recruitment"))</f>
         <v>Recruitment</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="L10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="10" t="str">
         <f aca="false">IF(B10,"ignored","Random recruitment")</f>
         <v>Random recruitment</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="str">
+      <c r="F11" s="10" t="str">
         <f aca="false">IF(G10,"ignored","Random recruitment")</f>
         <v>ignored</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="10" t="str">
         <f aca="false">IF(L10,"ignored","Random recruitment")</f>
         <v>Random recruitment</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="L12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="10" t="str">
         <f aca="false">IF(B12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>18.5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="str">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="str">
         <f aca="false">IF(G12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="10" t="str">
         <f aca="false">IF(L12,"Recruitment age","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="10" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of recruits distribution","ignored")</f>
         <v># of recruits distribution</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="str">
+        <v>92</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="str">
         <f aca="false">IF(AND(NOT(G10),G11),"# of recruits distribution","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="K15" s="18" t="str">
+        <v>93</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="K15" s="10" t="str">
         <f aca="false">IF(AND(NOT(L10),L11),"# of recruits distribution","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="10" t="str">
         <f aca="false">IF(AND(NOT(B10),B11),"# of distribution nodes","ignored")</f>
         <v># of distribution nodes</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="str">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="str">
         <f aca="false">IF(AND(NOT(G10),G11),"# of distribution nodes","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="K16" s="18" t="str">
+      <c r="H16" s="10"/>
+      <c r="K16" s="10" t="str">
         <f aca="false">IF(AND(NOT(L10),L11),"# of distribution nodes","ignored")</f>
         <v>ignored</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>87</v>
+      <c r="A17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">IF(B15="Pointwise","Normalised","")</f>
@@ -2751,14 +5025,14 @@
         <f aca="false">IF(B15="Pointwise","Total weight","")</f>
         <v>Total weight</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>87</v>
+      <c r="F17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="I17" s="0" t="str">
         <f aca="false">IF(G15="Pointwise","Normalised","")</f>
@@ -2768,14 +5042,14 @@
         <f aca="false">IF(G15="Pointwise","Total weight","")</f>
         <v/>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>87</v>
+      <c r="K17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="N17" s="0" t="str">
         <f aca="false">IF(L15="Pointwise","Normalised","")</f>
@@ -2793,7 +5067,7 @@
       <c r="C18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">IF(ISNUMBER(E18),IF(ISNUMBER(C18),C18/E18,0),"")</f>
         <v>0.25</v>
       </c>
@@ -2807,7 +5081,7 @@
       <c r="H18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J18),IF(ISNUMBER(H18),H18/J18,0),"")</f>
         <v/>
       </c>
@@ -2821,7 +5095,7 @@
       <c r="M18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O18),IF(ISNUMBER(M18),M18/O18,0),"")</f>
         <v/>
       </c>
@@ -2837,11 +5111,11 @@
       <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="12" t="n">
         <f aca="false">IF(ISNUMBER(E19),IF(ISNUMBER(C19),C19/E19,0),"")</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="13" t="n">
         <f aca="false">E18</f>
         <v>100</v>
       </c>
@@ -2851,11 +5125,11 @@
       <c r="H19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J19),IF(ISNUMBER(H19),H19/J19,0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="13" t="str">
         <f aca="false">J18</f>
         <v/>
       </c>
@@ -2865,11 +5139,11 @@
       <c r="M19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O19),IF(ISNUMBER(M19),M19/O19,0),"")</f>
         <v/>
       </c>
-      <c r="O19" s="9" t="str">
+      <c r="O19" s="13" t="str">
         <f aca="false">O18</f>
         <v/>
       </c>
@@ -2881,11 +5155,11 @@
       <c r="C20" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="12" t="n">
         <f aca="false">IF(ISNUMBER(E20),IF(ISNUMBER(C20),C20/E20,0),"")</f>
         <v>0.3</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="13" t="n">
         <f aca="false">E19</f>
         <v>100</v>
       </c>
@@ -2895,11 +5169,11 @@
       <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J20),IF(ISNUMBER(H20),H20/J20,0),"")</f>
         <v/>
       </c>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="13" t="str">
         <f aca="false">J19</f>
         <v/>
       </c>
@@ -2909,11 +5183,11 @@
       <c r="M20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O20),IF(ISNUMBER(M20),M20/O20,0),"")</f>
         <v/>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="13" t="str">
         <f aca="false">O19</f>
         <v/>
       </c>
@@ -2925,11 +5199,11 @@
       <c r="C21" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="12" t="n">
         <f aca="false">IF(ISNUMBER(E21),IF(ISNUMBER(C21),C21/E21,0),"")</f>
         <v>0.25</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="13" t="n">
         <f aca="false">E20</f>
         <v>100</v>
       </c>
@@ -2939,11 +5213,11 @@
       <c r="H21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J21),IF(ISNUMBER(H21),H21/J21,0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="13" t="str">
         <f aca="false">J20</f>
         <v/>
       </c>
@@ -2953,11 +5227,11 @@
       <c r="M21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O21),IF(ISNUMBER(M21),M21/O21,0),"")</f>
         <v/>
       </c>
-      <c r="O21" s="9" t="str">
+      <c r="O21" s="13" t="str">
         <f aca="false">O20</f>
         <v/>
       </c>
@@ -2969,11 +5243,11 @@
       <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J22),IF(ISNUMBER(H22),H22/J22,0),"")</f>
         <v/>
       </c>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="13" t="str">
         <f aca="false">J21</f>
         <v/>
       </c>
@@ -2983,62 +5257,62 @@
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O22),IF(ISNUMBER(M22),M22/O22,0),"")</f>
         <v/>
       </c>
-      <c r="O22" s="9" t="str">
+      <c r="O22" s="13" t="str">
         <f aca="false">O21</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="str">
+      <c r="A23" s="10" t="str">
         <f aca="false">IF(B$12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="str">
+      <c r="A24" s="10" t="str">
         <f aca="false">IF(B$12,"ignored","# of distribution nodes")</f>
         <v># of distribution nodes</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="str">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="str">
         <f aca="false">IF(G$12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="K24" s="18" t="str">
+        <v>97</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="K24" s="10" t="str">
         <f aca="false">IF(L$12,"ignored","Recruitment age distribution")</f>
         <v>Recruitment age distribution</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>87</v>
+      <c r="A25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">IF(B23="Pointwise","Normalised","")</f>
@@ -3048,22 +5322,22 @@
         <f aca="false">IF(B23="Pointwise","Total weight","")</f>
         <v/>
       </c>
-      <c r="F25" s="18" t="str">
+      <c r="F25" s="10" t="str">
         <f aca="false">IF(G$12,"ignored","# of distribution nodes")</f>
         <v># of distribution nodes</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="K25" s="18" t="str">
+      <c r="H25" s="10"/>
+      <c r="K25" s="10" t="str">
         <f aca="false">IF(L$12,"ignored","# of distribution nodes")</f>
         <v># of distribution nodes</v>
       </c>
       <c r="L25" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="n">
@@ -3072,7 +5346,7 @@
       <c r="C26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E26),IF(ISNUMBER(C26),C26/E26,0),"")</f>
         <v/>
       </c>
@@ -3080,14 +5354,14 @@
         <f aca="true">IF(B23="Pointwise",SUMIF(INDIRECT("C"&amp;(ROW())&amp;":C"&amp;(ROW()+B24-1)),"&gt; 0"),"")</f>
         <v/>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>87</v>
+      <c r="F26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="I26" s="0" t="str">
         <f aca="false">IF(G24="Pointwise","Normalised","")</f>
@@ -3097,14 +5371,14 @@
         <f aca="false">IF(G24="Pointwise","Total weight","")</f>
         <v/>
       </c>
-      <c r="K26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>87</v>
+      <c r="K26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="N26" s="0" t="str">
         <f aca="false">IF(L24="Pointwise","Normalised","")</f>
@@ -3122,11 +5396,11 @@
       <c r="C27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E27),IF(ISNUMBER(C27),C27/E27,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="13" t="str">
         <f aca="false">E26</f>
         <v/>
       </c>
@@ -3136,7 +5410,7 @@
       <c r="H27" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J27),IF(ISNUMBER(H27),H27/J27,0),"")</f>
         <v/>
       </c>
@@ -3150,7 +5424,7 @@
       <c r="M27" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N27" s="8" t="str">
+      <c r="N27" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O27),IF(ISNUMBER(M27),M27/O27,0),"")</f>
         <v/>
       </c>
@@ -3166,11 +5440,11 @@
       <c r="C28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E28),IF(ISNUMBER(C28),C28/E28,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="13" t="str">
         <f aca="false">E27</f>
         <v/>
       </c>
@@ -3180,11 +5454,11 @@
       <c r="H28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J28),IF(ISNUMBER(H28),H28/J28,0),"")</f>
         <v/>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="13" t="str">
         <f aca="false">J27</f>
         <v/>
       </c>
@@ -3194,11 +5468,11 @@
       <c r="M28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="N28" s="8" t="str">
+      <c r="N28" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O28),IF(ISNUMBER(M28),M28/O28,0),"")</f>
         <v/>
       </c>
-      <c r="O28" s="9" t="str">
+      <c r="O28" s="13" t="str">
         <f aca="false">O27</f>
         <v/>
       </c>
@@ -3210,11 +5484,11 @@
       <c r="C29" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E29),IF(ISNUMBER(C29),C29/E29,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="13" t="str">
         <f aca="false">E28</f>
         <v/>
       </c>
@@ -3224,11 +5498,11 @@
       <c r="H29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J29),IF(ISNUMBER(H29),H29/J29,0),"")</f>
         <v/>
       </c>
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="13" t="str">
         <f aca="false">J28</f>
         <v/>
       </c>
@@ -3238,11 +5512,11 @@
       <c r="M29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N29" s="8" t="str">
+      <c r="N29" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O29),IF(ISNUMBER(M29),M29/O29,0),"")</f>
         <v/>
       </c>
-      <c r="O29" s="9" t="str">
+      <c r="O29" s="13" t="str">
         <f aca="false">O28</f>
         <v/>
       </c>
@@ -3254,11 +5528,11 @@
       <c r="C30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E30),IF(ISNUMBER(C30),C30/E30,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="13" t="str">
         <f aca="false">E29</f>
         <v/>
       </c>
@@ -3268,11 +5542,11 @@
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J30),IF(ISNUMBER(H30),H30/J30,0),"")</f>
         <v/>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="13" t="str">
         <f aca="false">J29</f>
         <v/>
       </c>
@@ -3282,11 +5556,11 @@
       <c r="M30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N30" s="8" t="str">
+      <c r="N30" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O30),IF(ISNUMBER(M30),M30/O30,0),"")</f>
         <v/>
       </c>
-      <c r="O30" s="9" t="str">
+      <c r="O30" s="13" t="str">
         <f aca="false">O29</f>
         <v/>
       </c>
@@ -3298,11 +5572,11 @@
       <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="12" t="str">
         <f aca="false">IF(ISNUMBER(E31),IF(ISNUMBER(C31),C31/E31,0),"")</f>
         <v/>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="13" t="str">
         <f aca="false">E30</f>
         <v/>
       </c>
@@ -3312,11 +5586,11 @@
       <c r="H31" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J31),IF(ISNUMBER(H31),H31/J31,0),"")</f>
         <v/>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="13" t="str">
         <f aca="false">J30</f>
         <v/>
       </c>
@@ -3326,11 +5600,11 @@
       <c r="M31" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N31" s="8" t="str">
+      <c r="N31" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O31),IF(ISNUMBER(M31),M31/O31,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="9" t="str">
+      <c r="O31" s="13" t="str">
         <f aca="false">O30</f>
         <v/>
       </c>
@@ -3342,11 +5616,11 @@
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="8" t="str">
+      <c r="I32" s="12" t="str">
         <f aca="false">IF(ISNUMBER(J32),IF(ISNUMBER(H32),H32/J32,0),"")</f>
         <v/>
       </c>
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="13" t="str">
         <f aca="false">J31</f>
         <v/>
       </c>
@@ -3356,11 +5630,11 @@
       <c r="M32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="8" t="str">
+      <c r="N32" s="12" t="str">
         <f aca="false">IF(ISNUMBER(O32),IF(ISNUMBER(M32),M32/O32,0),"")</f>
         <v/>
       </c>
-      <c r="O32" s="9" t="str">
+      <c r="O32" s="13" t="str">
         <f aca="false">O31</f>
         <v/>
       </c>
@@ -3414,203 +5688,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="str">
-        <f aca="false">IF(B4,"Probability of attrition/period","ignored")</f>
-        <v>ignored</v>
-      </c>
-      <c r="B5" s="19" t="n">
-        <v>0.02</v>
+      <c r="A5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="str">
-        <f aca="false">IF(B4,"ignored","Attrition rate")</f>
-        <v>Attrition rate</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C10" s="19" t="n">
-        <v>0.01</v>
+      <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:C7">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>Attrition!$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>NOT(Attrition!$B$4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="decimal">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4" type="list">
-      <formula1>Misc!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5" type="decimal">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="false" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3621,6 +5781,10 @@
     </dataValidation>
     <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B6" type="decimal">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7" type="list">
+      <formula1>"EITHER,BOTH"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3646,25 +5810,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>98</v>
+      <c r="A1" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>100</v>
+      <c r="A3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -3672,307 +5836,307 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="7" t="n">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2"/>
       <c r="M5" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="N7" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="F8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="N8" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="B9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="F9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="N9" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="F10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="N10" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="B13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="F13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="J13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="N13" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="N13" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="J14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="N14" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="B15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="J15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="N15" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="B16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="F16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="J16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="N16" s="9" t="n">
         <v>1</v>
       </c>
     </row>
